--- a/RallyLists.xlsx
+++ b/RallyLists.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="493">
   <si>
     <t>US22</t>
   </si>
@@ -2290,7 +2290,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2374,6 +2374,12 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2522,9 +2528,6 @@
     <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2605,6 +2608,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9452,8 +9458,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9464,7 +9472,7 @@
     <col min="5" max="5" width="28.28515625" style="14" customWidth="1"/>
     <col min="6" max="6" width="58.85546875" style="14" customWidth="1"/>
     <col min="7" max="7" width="37.28515625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="39" style="14" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="14" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
@@ -9520,20 +9528,20 @@
       <c r="T1" s="25"/>
     </row>
     <row r="2" spans="1:20" s="4" customFormat="1">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36" t="s">
         <v>441</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>480</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="36" t="s">
         <v>419</v>
       </c>
       <c r="G2" s="26"/>
@@ -9544,48 +9552,48 @@
         <v>448</v>
       </c>
       <c r="J2" s="25"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36">
         <v>3</v>
       </c>
-      <c r="Q2" s="37">
-        <v>0</v>
-      </c>
-      <c r="R2" s="37">
-        <v>0</v>
-      </c>
-      <c r="S2" s="37" t="s">
+      <c r="Q2" s="36">
+        <v>0</v>
+      </c>
+      <c r="R2" s="36">
+        <v>0</v>
+      </c>
+      <c r="S2" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T2" s="37"/>
+      <c r="T2" s="36"/>
     </row>
     <row r="3" spans="1:20" s="10" customFormat="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36" t="s">
         <v>441</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="36" t="s">
         <v>480</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="36" t="s">
         <v>413</v>
       </c>
       <c r="G3" s="26"/>
@@ -9596,48 +9604,48 @@
         <v>448</v>
       </c>
       <c r="J3" s="25"/>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="N3" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37">
+      <c r="O3" s="36"/>
+      <c r="P3" s="36">
         <v>3</v>
       </c>
-      <c r="Q3" s="37">
-        <v>0</v>
-      </c>
-      <c r="R3" s="37">
-        <v>0</v>
-      </c>
-      <c r="S3" s="37" t="s">
+      <c r="Q3" s="36">
+        <v>0</v>
+      </c>
+      <c r="R3" s="36">
+        <v>0</v>
+      </c>
+      <c r="S3" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T3" s="37"/>
+      <c r="T3" s="36"/>
     </row>
     <row r="4" spans="1:20" s="10" customFormat="1">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36" t="s">
         <v>441</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>480</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="36" t="s">
         <v>287</v>
       </c>
       <c r="G4" s="26"/>
@@ -9648,48 +9656,48 @@
         <v>448</v>
       </c>
       <c r="J4" s="25"/>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="L4" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N4" s="37" t="s">
+      <c r="N4" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37">
+      <c r="O4" s="36"/>
+      <c r="P4" s="36">
         <v>3</v>
       </c>
-      <c r="Q4" s="37">
-        <v>0</v>
-      </c>
-      <c r="R4" s="37">
-        <v>0</v>
-      </c>
-      <c r="S4" s="37" t="s">
+      <c r="Q4" s="36">
+        <v>0</v>
+      </c>
+      <c r="R4" s="36">
+        <v>0</v>
+      </c>
+      <c r="S4" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T4" s="37"/>
+      <c r="T4" s="36"/>
     </row>
     <row r="5" spans="1:20" ht="63.75" hidden="1">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>481</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="37" t="s">
         <v>353</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="37" t="s">
         <v>385</v>
       </c>
       <c r="H5" s="26" t="s">
@@ -9701,42 +9709,42 @@
       <c r="J5" s="25">
         <v>1</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37" t="s">
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T5" s="37" t="s">
+      <c r="T5" s="36" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="216.75" hidden="1">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>314</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>481</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="37" t="s">
         <v>461</v>
       </c>
       <c r="H6" s="26" t="s">
@@ -9748,46 +9756,46 @@
       <c r="J6" s="25">
         <v>1</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="L6" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37">
-        <v>2</v>
-      </c>
-      <c r="R6" s="37">
-        <v>0</v>
-      </c>
-      <c r="S6" s="37" t="s">
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36">
+        <v>2</v>
+      </c>
+      <c r="R6" s="36">
+        <v>0</v>
+      </c>
+      <c r="S6" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T6" s="37" t="s">
+      <c r="T6" s="36" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="25.5" hidden="1">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>317</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="36" t="s">
         <v>481</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="37" t="s">
         <v>362</v>
       </c>
       <c r="H7" s="26" t="s">
@@ -9799,46 +9807,46 @@
       <c r="J7" s="25">
         <v>1</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L7" s="37" t="s">
+      <c r="L7" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M7" s="37" t="s">
+      <c r="M7" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37">
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36">
         <v>1</v>
       </c>
-      <c r="R7" s="37">
-        <v>0</v>
-      </c>
-      <c r="S7" s="37" t="s">
+      <c r="R7" s="36">
+        <v>0</v>
+      </c>
+      <c r="S7" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T7" s="37" t="s">
+      <c r="T7" s="36" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="38.25" hidden="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36" t="s">
         <v>439</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="36" t="s">
         <v>481</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="37" t="s">
         <v>320</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="37" t="s">
         <v>363</v>
       </c>
       <c r="G8" s="26"/>
@@ -9851,46 +9859,46 @@
       <c r="J8" s="25">
         <v>1</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="L8" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="M8" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37">
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36">
         <v>1</v>
       </c>
-      <c r="R8" s="37">
-        <v>0</v>
-      </c>
-      <c r="S8" s="37" t="s">
+      <c r="R8" s="36">
+        <v>0</v>
+      </c>
+      <c r="S8" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T8" s="37" t="s">
+      <c r="T8" s="36" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="51" hidden="1">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="36" t="s">
         <v>481</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="36" t="s">
         <v>466</v>
       </c>
       <c r="G9" s="26"/>
@@ -9903,160 +9911,160 @@
       <c r="J9" s="25">
         <v>1</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L9" s="37" t="s">
+      <c r="L9" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M9" s="37" t="s">
+      <c r="M9" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37">
-        <v>0</v>
-      </c>
-      <c r="S9" s="37" t="s">
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36">
+        <v>0</v>
+      </c>
+      <c r="S9" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T9" s="37" t="s">
+      <c r="T9" s="36" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="216.75" hidden="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="36" t="s">
         <v>481</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="37" t="s">
         <v>463</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="40" t="s">
         <v>392</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="45" t="s">
         <v>485</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="42">
         <v>1</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="42">
         <v>1</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="K10" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L10" s="37" t="s">
+      <c r="L10" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M10" s="37" t="s">
+      <c r="M10" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N10" s="37" t="s">
+      <c r="N10" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37">
+      <c r="O10" s="36"/>
+      <c r="P10" s="36">
         <v>5</v>
       </c>
-      <c r="Q10" s="37">
+      <c r="Q10" s="36">
         <v>4</v>
       </c>
-      <c r="R10" s="37">
-        <v>0</v>
-      </c>
-      <c r="S10" s="37" t="s">
+      <c r="R10" s="36">
+        <v>0</v>
+      </c>
+      <c r="S10" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="T10" s="37" t="s">
+      <c r="T10" s="36" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="165.75" hidden="1">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="36" t="s">
         <v>481</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="37" t="s">
         <v>467</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="42">
         <v>1</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="42">
         <v>1</v>
       </c>
-      <c r="K11" s="37" t="s">
+      <c r="K11" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="L11" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M11" s="37" t="s">
+      <c r="M11" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N11" s="37" t="s">
+      <c r="N11" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37">
+      <c r="O11" s="36"/>
+      <c r="P11" s="36">
         <v>8</v>
       </c>
-      <c r="Q11" s="37">
-        <v>0</v>
-      </c>
-      <c r="R11" s="37">
-        <v>0</v>
-      </c>
-      <c r="S11" s="37" t="s">
+      <c r="Q11" s="36">
+        <v>0</v>
+      </c>
+      <c r="R11" s="36">
+        <v>0</v>
+      </c>
+      <c r="S11" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="T11" s="37" t="s">
+      <c r="T11" s="36" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="216.75" hidden="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="36" t="s">
         <v>324</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="36" t="s">
         <v>481</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="37" t="s">
         <v>325</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="37" t="s">
         <v>459</v>
       </c>
       <c r="G12" s="26"/>
@@ -10069,150 +10077,150 @@
       <c r="J12" s="25">
         <v>1</v>
       </c>
-      <c r="K12" s="37" t="s">
+      <c r="K12" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L12" s="37" t="s">
+      <c r="L12" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M12" s="37" t="s">
+      <c r="M12" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37">
-        <v>0</v>
-      </c>
-      <c r="S12" s="37" t="s">
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36">
+        <v>0</v>
+      </c>
+      <c r="S12" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T12" s="37" t="s">
+      <c r="T12" s="36" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="242.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="57" t="s">
+    <row r="13" spans="1:20">
+      <c r="A13" s="36"/>
+      <c r="B13" s="56" t="s">
         <v>439</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="36" t="s">
         <v>482</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="36" t="s">
         <v>479</v>
       </c>
       <c r="G13" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="H13" s="45" t="s">
+      <c r="H13" s="43" t="s">
         <v>489</v>
       </c>
-      <c r="I13" s="43">
+      <c r="I13" s="42">
         <v>1</v>
       </c>
-      <c r="J13" s="43"/>
-      <c r="K13" s="37" t="s">
+      <c r="J13" s="42"/>
+      <c r="K13" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M13" s="37" t="s">
+      <c r="M13" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N13" s="37" t="s">
+      <c r="N13" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="37">
+      <c r="O13" s="36"/>
+      <c r="P13" s="36">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="36">
         <v>1</v>
       </c>
-      <c r="R13" s="37">
-        <v>0</v>
-      </c>
-      <c r="S13" s="37" t="s">
+      <c r="R13" s="36">
+        <v>0</v>
+      </c>
+      <c r="S13" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="T13" s="37" t="s">
+      <c r="T13" s="36" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="102">
-      <c r="A14" s="37"/>
-      <c r="B14" s="57" t="s">
+    <row r="14" spans="1:20" ht="38.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="56" t="s">
         <v>447</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="36" t="s">
         <v>338</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="36" t="s">
         <v>482</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="37" t="s">
         <v>339</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="36" t="s">
         <v>406</v>
       </c>
       <c r="G14" s="26"/>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="26" t="s">
         <v>490</v>
       </c>
       <c r="I14" s="25">
         <v>1</v>
       </c>
       <c r="J14" s="25"/>
-      <c r="K14" s="37" t="s">
+      <c r="K14" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L14" s="37" t="s">
+      <c r="L14" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M14" s="37" t="s">
+      <c r="M14" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37">
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36">
         <v>1</v>
       </c>
-      <c r="R14" s="37">
-        <v>0</v>
-      </c>
-      <c r="S14" s="37" t="s">
+      <c r="R14" s="36">
+        <v>0</v>
+      </c>
+      <c r="S14" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T14" s="37" t="s">
+      <c r="T14" s="36" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="38.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="57" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="56" t="s">
         <v>447</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>326</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="36" t="s">
         <v>481</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="37" t="s">
         <v>327</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="36" t="s">
         <v>390</v>
       </c>
       <c r="G15" s="26"/>
@@ -10221,42 +10229,42 @@
         <v>1</v>
       </c>
       <c r="J15" s="25"/>
-      <c r="K15" s="37" t="s">
+      <c r="K15" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L15" s="37" t="s">
+      <c r="L15" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M15" s="37" t="s">
+      <c r="M15" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37" t="s">
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T15" s="37" t="s">
+      <c r="T15" s="36" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="37"/>
-      <c r="B16" s="57" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="56" t="s">
         <v>447</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="36" t="s">
         <v>481</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="36" t="s">
         <v>369</v>
       </c>
       <c r="G16" s="26"/>
@@ -10265,50 +10273,50 @@
         <v>1</v>
       </c>
       <c r="J16" s="25"/>
-      <c r="K16" s="37" t="s">
+      <c r="K16" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L16" s="37" t="s">
+      <c r="L16" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M16" s="37" t="s">
+      <c r="M16" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N16" s="37" t="s">
+      <c r="N16" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37">
+      <c r="O16" s="36"/>
+      <c r="P16" s="36">
         <v>3</v>
       </c>
-      <c r="Q16" s="37">
-        <v>2</v>
-      </c>
-      <c r="R16" s="37">
-        <v>0</v>
-      </c>
-      <c r="S16" s="37" t="s">
+      <c r="Q16" s="36">
+        <v>2</v>
+      </c>
+      <c r="R16" s="36">
+        <v>0</v>
+      </c>
+      <c r="S16" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T16" s="37" t="s">
+      <c r="T16" s="36" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="10" customFormat="1" ht="38.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="57" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="56" t="s">
         <v>447</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="36" t="s">
         <v>481</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="36" t="s">
         <v>384</v>
       </c>
       <c r="G17" s="26"/>
@@ -10317,28 +10325,28 @@
         <v>2</v>
       </c>
       <c r="J17" s="25"/>
-      <c r="K17" s="37" t="s">
+      <c r="K17" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L17" s="37" t="s">
+      <c r="L17" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M17" s="37" t="s">
+      <c r="M17" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37">
-        <v>2</v>
-      </c>
-      <c r="R17" s="37">
-        <v>0</v>
-      </c>
-      <c r="S17" s="37" t="s">
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36">
+        <v>2</v>
+      </c>
+      <c r="R17" s="36">
+        <v>0</v>
+      </c>
+      <c r="S17" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T17" s="37" t="s">
+      <c r="T17" s="36" t="s">
         <v>313</v>
       </c>
     </row>
@@ -10346,23 +10354,23 @@
       <c r="A18" s="27">
         <v>7</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="57" t="s">
         <v>435</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="36" t="s">
         <v>481</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="48" t="s">
         <v>488</v>
       </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="48" t="s">
+      <c r="G18" s="48"/>
+      <c r="H18" s="47" t="s">
         <v>487</v>
       </c>
       <c r="I18" s="27">
@@ -10393,116 +10401,116 @@
       <c r="T18" s="25"/>
     </row>
     <row r="19" spans="1:20" ht="25.5">
-      <c r="A19" s="37"/>
-      <c r="B19" s="57" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="56" t="s">
         <v>447</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="36" t="s">
         <v>482</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="36" t="s">
         <v>303</v>
       </c>
       <c r="G19" s="26"/>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="43" t="s">
         <v>491</v>
       </c>
       <c r="I19" s="25">
         <v>1</v>
       </c>
       <c r="J19" s="25"/>
-      <c r="K19" s="37" t="s">
+      <c r="K19" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L19" s="37" t="s">
+      <c r="L19" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M19" s="37" t="s">
+      <c r="M19" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N19" s="37" t="s">
+      <c r="N19" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37">
+      <c r="O19" s="36"/>
+      <c r="P19" s="36">
         <v>8</v>
       </c>
-      <c r="Q19" s="37">
-        <v>0</v>
-      </c>
-      <c r="R19" s="37">
-        <v>0</v>
-      </c>
-      <c r="S19" s="37" t="s">
+      <c r="Q19" s="36">
+        <v>0</v>
+      </c>
+      <c r="R19" s="36">
+        <v>0</v>
+      </c>
+      <c r="S19" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T19" s="37" t="s">
+      <c r="T19" s="36" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="165.75">
-      <c r="A20" s="37"/>
-      <c r="B20" s="57" t="s">
+    <row r="20" spans="1:20">
+      <c r="A20" s="36"/>
+      <c r="B20" s="56" t="s">
         <v>440</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38" t="s">
+      <c r="D20" s="36"/>
+      <c r="E20" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="36" t="s">
         <v>471</v>
       </c>
       <c r="G20" s="26"/>
-      <c r="H20" s="45" t="s">
+      <c r="H20" s="43" t="s">
         <v>492</v>
       </c>
       <c r="I20" s="25">
         <v>1</v>
       </c>
       <c r="J20" s="25"/>
-      <c r="K20" s="37" t="s">
+      <c r="K20" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L20" s="37" t="s">
+      <c r="L20" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M20" s="37" t="s">
+      <c r="M20" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N20" s="37" t="s">
+      <c r="N20" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37">
+      <c r="O20" s="36"/>
+      <c r="P20" s="36">
         <v>15</v>
       </c>
-      <c r="Q20" s="37">
-        <v>0</v>
-      </c>
-      <c r="R20" s="37">
-        <v>0</v>
-      </c>
-      <c r="S20" s="37" t="s">
+      <c r="Q20" s="36">
+        <v>0</v>
+      </c>
+      <c r="R20" s="36">
+        <v>0</v>
+      </c>
+      <c r="S20" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="T20" s="37" t="s">
+      <c r="T20" s="36" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="10" customFormat="1" ht="102">
+    <row r="21" spans="1:20" s="10" customFormat="1" ht="25.5">
       <c r="A21" s="27">
         <v>41</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="57" t="s">
         <v>439</v>
       </c>
       <c r="C21" s="28" t="s">
@@ -10512,13 +10520,13 @@
       <c r="E21" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="49"/>
+      <c r="H21" s="48"/>
       <c r="I21" s="27">
         <v>3</v>
       </c>
@@ -10546,11 +10554,11 @@
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
     </row>
-    <row r="22" spans="1:20" s="10" customFormat="1" ht="76.5">
+    <row r="22" spans="1:20" s="10" customFormat="1">
       <c r="A22" s="27">
         <v>12</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="58" t="s">
         <v>440</v>
       </c>
       <c r="C22" s="28" t="s">
@@ -10560,11 +10568,11 @@
       <c r="E22" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49" t="s">
+      <c r="G22" s="48"/>
+      <c r="H22" s="48" t="s">
         <v>472</v>
       </c>
       <c r="I22" s="27">
@@ -10598,7 +10606,7 @@
       <c r="A23" s="27">
         <v>13</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="58" t="s">
         <v>440</v>
       </c>
       <c r="C23" s="28" t="s">
@@ -10608,11 +10616,11 @@
       <c r="E23" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
       <c r="I23" s="27">
         <v>5</v>
       </c>
@@ -10640,671 +10648,685 @@
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
     </row>
-    <row r="24" spans="1:20" ht="25.5">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37" t="s">
+    <row r="24" spans="1:20" ht="25.5" hidden="1">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36" t="s">
         <v>451</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38" t="s">
+      <c r="D24" s="36"/>
+      <c r="E24" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F24" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="49" t="s">
         <v>398</v>
       </c>
-      <c r="H24" s="50"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="37" t="s">
+      <c r="H24" s="49"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38">
+        <v>1</v>
+      </c>
+      <c r="K24" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L24" s="37" t="s">
+      <c r="L24" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M24" s="37" t="s">
+      <c r="M24" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N24" s="37" t="s">
+      <c r="N24" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="37">
-        <v>0</v>
-      </c>
-      <c r="R24" s="37">
-        <v>0</v>
-      </c>
-      <c r="S24" s="37" t="s">
+      <c r="O24" s="36"/>
+      <c r="P24" s="36">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="36">
+        <v>0</v>
+      </c>
+      <c r="R24" s="36">
+        <v>0</v>
+      </c>
+      <c r="S24" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T24" s="37"/>
-    </row>
-    <row r="25" spans="1:20" ht="25.5">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37" t="s">
+      <c r="T24" s="36"/>
+    </row>
+    <row r="25" spans="1:20" ht="25.5" hidden="1">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36" t="s">
         <v>451</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38" t="s">
+      <c r="D25" s="36"/>
+      <c r="E25" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="G25" s="50" t="s">
+      <c r="G25" s="49" t="s">
         <v>398</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="37" t="s">
+      <c r="H25" s="49"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38">
+        <v>1</v>
+      </c>
+      <c r="K25" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L25" s="37" t="s">
+      <c r="L25" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M25" s="37" t="s">
+      <c r="M25" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N25" s="37" t="s">
+      <c r="N25" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="37">
-        <v>0</v>
-      </c>
-      <c r="R25" s="37">
-        <v>0</v>
-      </c>
-      <c r="S25" s="37" t="s">
+      <c r="O25" s="36"/>
+      <c r="P25" s="36">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="36">
+        <v>0</v>
+      </c>
+      <c r="R25" s="36">
+        <v>0</v>
+      </c>
+      <c r="S25" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T25" s="37"/>
-    </row>
-    <row r="26" spans="1:20" ht="38.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37" t="s">
+      <c r="T25" s="36"/>
+    </row>
+    <row r="26" spans="1:20" ht="76.5" hidden="1">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36" t="s">
         <v>442</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38" t="s">
+      <c r="D26" s="36"/>
+      <c r="E26" s="37" t="s">
         <v>202</v>
       </c>
       <c r="F26" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="36" t="s">
         <v>418</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="37" t="s">
+      <c r="H26" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L26" s="37" t="s">
+      <c r="L26" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M26" s="37" t="s">
+      <c r="M26" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N26" s="37" t="s">
+      <c r="N26" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37">
+      <c r="O26" s="36"/>
+      <c r="P26" s="36">
         <v>3</v>
       </c>
-      <c r="Q26" s="37">
-        <v>0</v>
-      </c>
-      <c r="R26" s="37">
-        <v>0</v>
-      </c>
-      <c r="S26" s="37" t="s">
+      <c r="Q26" s="36">
+        <v>0</v>
+      </c>
+      <c r="R26" s="36">
+        <v>0</v>
+      </c>
+      <c r="S26" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T26" s="37" t="s">
+      <c r="T26" s="36" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="25.5">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37" t="s">
+    <row r="27" spans="1:20" ht="25.5" hidden="1">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36" t="s">
         <v>442</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38" t="s">
+      <c r="D27" s="36"/>
+      <c r="E27" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="F27" s="36" t="s">
         <v>300</v>
       </c>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37" t="s">
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36">
+        <v>1</v>
+      </c>
+      <c r="K27" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L27" s="37" t="s">
+      <c r="L27" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M27" s="37" t="s">
+      <c r="M27" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N27" s="37" t="s">
+      <c r="N27" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37">
+      <c r="O27" s="36"/>
+      <c r="P27" s="36">
         <v>1</v>
       </c>
-      <c r="Q27" s="37">
-        <v>0</v>
-      </c>
-      <c r="R27" s="37">
-        <v>0</v>
-      </c>
-      <c r="S27" s="37" t="s">
+      <c r="Q27" s="36">
+        <v>0</v>
+      </c>
+      <c r="R27" s="36">
+        <v>0</v>
+      </c>
+      <c r="S27" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T27" s="37" t="s">
+      <c r="T27" s="36" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37" t="s">
+    <row r="28" spans="1:20" hidden="1">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36" t="s">
         <v>442</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38" t="s">
+      <c r="D28" s="36"/>
+      <c r="E28" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37" t="s">
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36">
+        <v>1</v>
+      </c>
+      <c r="K28" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L28" s="37" t="s">
+      <c r="L28" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M28" s="37" t="s">
+      <c r="M28" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N28" s="37" t="s">
+      <c r="N28" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37">
+      <c r="O28" s="36"/>
+      <c r="P28" s="36">
         <v>4</v>
       </c>
-      <c r="Q28" s="37">
-        <v>0</v>
-      </c>
-      <c r="R28" s="37">
-        <v>0</v>
-      </c>
-      <c r="S28" s="37" t="s">
+      <c r="Q28" s="36">
+        <v>0</v>
+      </c>
+      <c r="R28" s="36">
+        <v>0</v>
+      </c>
+      <c r="S28" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T28" s="37" t="s">
+      <c r="T28" s="36" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37" t="s">
+    <row r="29" spans="1:20" hidden="1">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36" t="s">
         <v>442</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38" t="s">
+      <c r="D29" s="36"/>
+      <c r="E29" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37" t="s">
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L29" s="37" t="s">
+      <c r="L29" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M29" s="37" t="s">
+      <c r="M29" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N29" s="37" t="s">
+      <c r="N29" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37">
+      <c r="O29" s="36"/>
+      <c r="P29" s="36">
         <v>1</v>
       </c>
-      <c r="Q29" s="37">
-        <v>0</v>
-      </c>
-      <c r="R29" s="37">
-        <v>0</v>
-      </c>
-      <c r="S29" s="37" t="s">
+      <c r="Q29" s="36">
+        <v>0</v>
+      </c>
+      <c r="R29" s="36">
+        <v>0</v>
+      </c>
+      <c r="S29" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T29" s="37" t="s">
+      <c r="T29" s="36" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37" t="s">
+    <row r="30" spans="1:20" hidden="1">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36" t="s">
         <v>442</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38" t="s">
+      <c r="D30" s="36"/>
+      <c r="E30" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="36" t="s">
         <v>293</v>
       </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37" t="s">
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L30" s="37" t="s">
+      <c r="L30" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M30" s="37" t="s">
+      <c r="M30" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N30" s="37" t="s">
+      <c r="N30" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37">
+      <c r="O30" s="36"/>
+      <c r="P30" s="36">
         <v>1</v>
       </c>
-      <c r="Q30" s="37">
-        <v>0</v>
-      </c>
-      <c r="R30" s="37">
-        <v>0</v>
-      </c>
-      <c r="S30" s="37" t="s">
+      <c r="Q30" s="36">
+        <v>0</v>
+      </c>
+      <c r="R30" s="36">
+        <v>0</v>
+      </c>
+      <c r="S30" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T30" s="37" t="s">
+      <c r="T30" s="36" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="76.5" hidden="1">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37" t="s">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="36" t="s">
         <v>482</v>
       </c>
-      <c r="E31" s="38" t="s">
+      <c r="E31" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="37" t="s">
         <v>304</v>
       </c>
       <c r="G31" s="26"/>
-      <c r="H31" s="41" t="s">
+      <c r="H31" s="40" t="s">
         <v>486</v>
       </c>
       <c r="I31" s="25">
         <v>1</v>
       </c>
-      <c r="J31" s="47">
+      <c r="J31" s="46">
         <v>1</v>
       </c>
-      <c r="K31" s="37" t="s">
+      <c r="K31" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L31" s="37" t="s">
+      <c r="L31" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M31" s="37" t="s">
+      <c r="M31" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N31" s="37" t="s">
+      <c r="N31" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37">
+      <c r="O31" s="36"/>
+      <c r="P31" s="36">
         <v>8</v>
       </c>
-      <c r="Q31" s="37">
-        <v>0</v>
-      </c>
-      <c r="R31" s="37">
-        <v>0</v>
-      </c>
-      <c r="S31" s="37" t="s">
+      <c r="Q31" s="36">
+        <v>0</v>
+      </c>
+      <c r="R31" s="36">
+        <v>0</v>
+      </c>
+      <c r="S31" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T31" s="37" t="s">
+      <c r="T31" s="36" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="127.5" hidden="1">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37" t="s">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36" t="s">
         <v>439</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="36" t="s">
         <v>328</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="36" t="s">
         <v>482</v>
       </c>
-      <c r="E32" s="38" t="s">
+      <c r="E32" s="37" t="s">
         <v>329</v>
       </c>
-      <c r="F32" s="38" t="s">
+      <c r="F32" s="37" t="s">
         <v>381</v>
       </c>
       <c r="G32" s="26"/>
-      <c r="H32" s="45" t="s">
+      <c r="H32" s="44" t="s">
         <v>483</v>
       </c>
       <c r="I32" s="25">
         <v>1</v>
       </c>
-      <c r="J32" s="47">
+      <c r="J32" s="46">
         <v>1</v>
       </c>
-      <c r="K32" s="37" t="s">
+      <c r="K32" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L32" s="37" t="s">
+      <c r="L32" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M32" s="37" t="s">
+      <c r="M32" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37">
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36">
         <v>1</v>
       </c>
-      <c r="R32" s="37">
-        <v>0</v>
-      </c>
-      <c r="S32" s="37" t="s">
+      <c r="R32" s="36">
+        <v>0</v>
+      </c>
+      <c r="S32" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T32" s="37" t="s">
+      <c r="T32" s="36" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="25.5">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37" t="s">
+    <row r="33" spans="1:20" ht="25.5" hidden="1">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36" t="s">
         <v>451</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="38" t="s">
+      <c r="D33" s="36"/>
+      <c r="E33" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="F33" s="37" t="s">
+      <c r="F33" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="G33" s="37" t="s">
+      <c r="G33" s="36" t="s">
         <v>397</v>
       </c>
-      <c r="H33" s="37"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="37" t="s">
+      <c r="H33" s="36"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L33" s="37" t="s">
+      <c r="L33" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M33" s="37" t="s">
+      <c r="M33" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N33" s="37" t="s">
+      <c r="N33" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37">
+      <c r="O33" s="36"/>
+      <c r="P33" s="36">
         <v>4</v>
       </c>
-      <c r="Q33" s="37">
-        <v>0</v>
-      </c>
-      <c r="R33" s="37">
-        <v>0</v>
-      </c>
-      <c r="S33" s="37" t="s">
+      <c r="Q33" s="36">
+        <v>0</v>
+      </c>
+      <c r="R33" s="36">
+        <v>0</v>
+      </c>
+      <c r="S33" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T33" s="37" t="s">
+      <c r="T33" s="36" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="25.5">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37" t="s">
+    <row r="34" spans="1:20" ht="25.5" hidden="1">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36" t="s">
         <v>451</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="38" t="s">
+      <c r="D34" s="36"/>
+      <c r="E34" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="F34" s="37" t="s">
+      <c r="F34" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="G34" s="50" t="s">
+      <c r="G34" s="49" t="s">
         <v>398</v>
       </c>
-      <c r="H34" s="50"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="37" t="s">
+      <c r="H34" s="49"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38">
+        <v>1</v>
+      </c>
+      <c r="K34" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L34" s="37" t="s">
+      <c r="L34" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M34" s="37" t="s">
+      <c r="M34" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N34" s="37" t="s">
+      <c r="N34" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37">
-        <v>2</v>
-      </c>
-      <c r="Q34" s="37">
-        <v>0</v>
-      </c>
-      <c r="R34" s="37">
-        <v>0</v>
-      </c>
-      <c r="S34" s="37" t="s">
+      <c r="O34" s="36"/>
+      <c r="P34" s="36">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="36">
+        <v>0</v>
+      </c>
+      <c r="R34" s="36">
+        <v>0</v>
+      </c>
+      <c r="S34" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T34" s="37" t="s">
+      <c r="T34" s="36" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="38.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37" t="s">
+    <row r="35" spans="1:20" ht="38.25" hidden="1">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36" t="s">
         <v>446</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="38" t="s">
+      <c r="D35" s="36"/>
+      <c r="E35" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="36" t="s">
         <v>291</v>
       </c>
-      <c r="G35" s="50" t="s">
+      <c r="G35" s="49" t="s">
         <v>378</v>
       </c>
-      <c r="H35" s="50"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="37" t="s">
+      <c r="H35" s="49"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38">
+        <v>1</v>
+      </c>
+      <c r="K35" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L35" s="37" t="s">
+      <c r="L35" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M35" s="37" t="s">
+      <c r="M35" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N35" s="37" t="s">
+      <c r="N35" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37">
+      <c r="O35" s="36"/>
+      <c r="P35" s="36">
         <v>1</v>
       </c>
-      <c r="Q35" s="37">
-        <v>0</v>
-      </c>
-      <c r="R35" s="37">
-        <v>0</v>
-      </c>
-      <c r="S35" s="37" t="s">
+      <c r="Q35" s="36">
+        <v>0</v>
+      </c>
+      <c r="R35" s="36">
+        <v>0</v>
+      </c>
+      <c r="S35" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T35" s="37"/>
+      <c r="T35" s="36"/>
     </row>
     <row r="36" spans="1:20" ht="242.25" hidden="1">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37" t="s">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="36" t="s">
         <v>482</v>
       </c>
-      <c r="E36" s="38" t="s">
+      <c r="E36" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="F36" s="38" t="s">
+      <c r="F36" s="37" t="s">
         <v>469</v>
       </c>
       <c r="G36" s="26"/>
-      <c r="H36" s="45" t="s">
+      <c r="H36" s="44" t="s">
         <v>484</v>
       </c>
       <c r="I36" s="25">
         <v>1</v>
       </c>
-      <c r="J36" s="47">
+      <c r="J36" s="46">
         <v>1</v>
       </c>
-      <c r="K36" s="37" t="s">
+      <c r="K36" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L36" s="37" t="s">
+      <c r="L36" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M36" s="37" t="s">
+      <c r="M36" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N36" s="37" t="s">
+      <c r="N36" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37">
-        <v>2</v>
-      </c>
-      <c r="Q36" s="37">
-        <v>0</v>
-      </c>
-      <c r="R36" s="37">
-        <v>0</v>
-      </c>
-      <c r="S36" s="37" t="s">
+      <c r="O36" s="36"/>
+      <c r="P36" s="36">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="36">
+        <v>0</v>
+      </c>
+      <c r="R36" s="36">
+        <v>0</v>
+      </c>
+      <c r="S36" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T36" s="37" t="s">
+      <c r="T36" s="36" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="38.25" hidden="1">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37" t="s">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="36" t="s">
         <v>482</v>
       </c>
-      <c r="E37" s="38" t="s">
+      <c r="E37" s="37" t="s">
         <v>343</v>
       </c>
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="37" t="s">
         <v>366</v>
       </c>
       <c r="G37" s="26"/>
@@ -11312,132 +11334,132 @@
       <c r="I37" s="25">
         <v>1</v>
       </c>
-      <c r="J37" s="47">
+      <c r="J37" s="46">
         <v>1</v>
       </c>
-      <c r="K37" s="37" t="s">
+      <c r="K37" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L37" s="37" t="s">
+      <c r="L37" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M37" s="37" t="s">
+      <c r="M37" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37">
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36">
         <v>1</v>
       </c>
-      <c r="R37" s="37">
-        <v>0</v>
-      </c>
-      <c r="S37" s="37" t="s">
+      <c r="R37" s="36">
+        <v>0</v>
+      </c>
+      <c r="S37" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T37" s="37" t="s">
+      <c r="T37" s="36" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37" t="s">
+    <row r="38" spans="1:20" hidden="1">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36" t="s">
         <v>451</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="38" t="s">
+      <c r="D38" s="36"/>
+      <c r="E38" s="37" t="s">
         <v>355</v>
       </c>
-      <c r="F38" s="37" t="s">
+      <c r="F38" s="36" t="s">
         <v>371</v>
       </c>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37" t="s">
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L38" s="37" t="s">
+      <c r="L38" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M38" s="37" t="s">
+      <c r="M38" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37">
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36">
         <v>3</v>
       </c>
-      <c r="R38" s="37">
+      <c r="R38" s="36">
         <v>3</v>
       </c>
-      <c r="S38" s="37" t="s">
+      <c r="S38" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T38" s="37" t="s">
+      <c r="T38" s="36" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="25.5">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37" t="s">
+    <row r="39" spans="1:20" ht="25.5" hidden="1">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36" t="s">
         <v>451</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="38" t="s">
+      <c r="D39" s="36"/>
+      <c r="E39" s="37" t="s">
         <v>357</v>
       </c>
-      <c r="F39" s="37" t="s">
+      <c r="F39" s="36" t="s">
         <v>403</v>
       </c>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37" t="s">
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L39" s="37" t="s">
+      <c r="L39" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M39" s="37" t="s">
+      <c r="M39" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37">
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36">
         <v>10</v>
       </c>
-      <c r="R39" s="37">
+      <c r="R39" s="36">
         <v>10</v>
       </c>
-      <c r="S39" s="37" t="s">
+      <c r="S39" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T39" s="37" t="s">
+      <c r="T39" s="36" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40" t="s">
+      <c r="A40" s="39"/>
+      <c r="B40" s="39" t="s">
         <v>447</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38" t="s">
+      <c r="D40" s="37"/>
+      <c r="E40" s="37" t="s">
         <v>269</v>
       </c>
       <c r="F40" s="26" t="s">
@@ -11445,310 +11467,312 @@
       </c>
       <c r="G40" s="26"/>
       <c r="H40" s="26"/>
-      <c r="I40" s="43">
+      <c r="I40" s="42">
         <v>1</v>
       </c>
-      <c r="J40" s="43"/>
-      <c r="K40" s="38" t="s">
+      <c r="J40" s="42"/>
+      <c r="K40" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="L40" s="38" t="s">
+      <c r="L40" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="M40" s="38" t="s">
+      <c r="M40" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="N40" s="38" t="s">
+      <c r="N40" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38">
+      <c r="O40" s="37"/>
+      <c r="P40" s="37">
         <v>3</v>
       </c>
-      <c r="Q40" s="38">
-        <v>0</v>
-      </c>
-      <c r="R40" s="38">
-        <v>0</v>
-      </c>
-      <c r="S40" s="38">
-        <v>0</v>
-      </c>
-      <c r="T40" s="38" t="s">
+      <c r="Q40" s="37">
+        <v>0</v>
+      </c>
+      <c r="R40" s="37">
+        <v>0</v>
+      </c>
+      <c r="S40" s="37">
+        <v>0</v>
+      </c>
+      <c r="T40" s="37" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="51">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37" t="s">
+    <row r="41" spans="1:20" ht="51" hidden="1">
+      <c r="A41" s="36"/>
+      <c r="B41" s="36" t="s">
         <v>442</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="D41" s="37"/>
-      <c r="E41" s="38" t="s">
+      <c r="D41" s="36"/>
+      <c r="E41" s="37" t="s">
         <v>341</v>
       </c>
-      <c r="F41" s="37" t="s">
+      <c r="F41" s="36" t="s">
         <v>365</v>
       </c>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37" t="s">
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L41" s="37" t="s">
+      <c r="L41" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M41" s="37" t="s">
+      <c r="M41" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37">
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36">
         <v>1</v>
       </c>
-      <c r="R41" s="37">
-        <v>0</v>
-      </c>
-      <c r="S41" s="37" t="s">
+      <c r="R41" s="36">
+        <v>0</v>
+      </c>
+      <c r="S41" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T41" s="37" t="s">
+      <c r="T41" s="36" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:20">
-      <c r="A42" s="40"/>
-      <c r="B42" s="40" t="s">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39" t="s">
         <v>447</v>
       </c>
-      <c r="C42" s="38" t="s">
+      <c r="C42" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38" t="s">
+      <c r="D42" s="37"/>
+      <c r="E42" s="37" t="s">
         <v>282</v>
       </c>
       <c r="F42" s="26" t="s">
         <v>433</v>
       </c>
       <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="43">
+      <c r="H42" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="I42" s="42">
         <v>5</v>
       </c>
-      <c r="J42" s="43"/>
-      <c r="K42" s="38" t="s">
+      <c r="J42" s="42"/>
+      <c r="K42" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="L42" s="38" t="s">
+      <c r="L42" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="M42" s="38" t="s">
+      <c r="M42" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="N42" s="38" t="s">
+      <c r="N42" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38">
-        <v>2</v>
-      </c>
-      <c r="Q42" s="38">
-        <v>0</v>
-      </c>
-      <c r="R42" s="38">
-        <v>0</v>
-      </c>
-      <c r="S42" s="38">
-        <v>0</v>
-      </c>
-      <c r="T42" s="38" t="s">
+      <c r="O42" s="37"/>
+      <c r="P42" s="37">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="37">
+        <v>0</v>
+      </c>
+      <c r="R42" s="37">
+        <v>0</v>
+      </c>
+      <c r="S42" s="37">
+        <v>0</v>
+      </c>
+      <c r="T42" s="37" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="51">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37" t="s">
+    <row r="43" spans="1:20" ht="51" hidden="1">
+      <c r="A43" s="36"/>
+      <c r="B43" s="36" t="s">
         <v>442</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="36" t="s">
         <v>336</v>
       </c>
-      <c r="D43" s="37"/>
-      <c r="E43" s="38" t="s">
+      <c r="D43" s="36"/>
+      <c r="E43" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37" t="s">
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L43" s="37" t="s">
+      <c r="L43" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M43" s="37" t="s">
+      <c r="M43" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37">
-        <v>0</v>
-      </c>
-      <c r="S43" s="37" t="s">
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36">
+        <v>0</v>
+      </c>
+      <c r="S43" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T43" s="37" t="s">
+      <c r="T43" s="36" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="25.5">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37" t="s">
+    <row r="44" spans="1:20" ht="25.5" hidden="1">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="36" t="s">
         <v>348</v>
       </c>
-      <c r="D44" s="37"/>
-      <c r="E44" s="38" t="s">
+      <c r="D44" s="36"/>
+      <c r="E44" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="F44" s="37" t="s">
+      <c r="F44" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37" t="s">
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L44" s="37" t="s">
+      <c r="L44" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M44" s="37" t="s">
+      <c r="M44" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37">
-        <v>0</v>
-      </c>
-      <c r="S44" s="37" t="s">
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36">
+        <v>0</v>
+      </c>
+      <c r="S44" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T44" s="37" t="s">
+      <c r="T44" s="36" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="25.5">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37" t="s">
+    <row r="45" spans="1:20" ht="25.5" hidden="1">
+      <c r="A45" s="36"/>
+      <c r="B45" s="36" t="s">
         <v>442</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="36" t="s">
         <v>330</v>
       </c>
-      <c r="D45" s="37"/>
-      <c r="E45" s="38" t="s">
+      <c r="D45" s="36"/>
+      <c r="E45" s="37" t="s">
         <v>331</v>
       </c>
-      <c r="F45" s="37" t="s">
+      <c r="F45" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37" t="s">
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L45" s="37" t="s">
+      <c r="L45" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M45" s="37" t="s">
+      <c r="M45" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37" t="s">
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T45" s="37" t="s">
+      <c r="T45" s="36" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="38.25">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37" t="s">
+    <row r="46" spans="1:20" ht="38.25" hidden="1">
+      <c r="A46" s="36"/>
+      <c r="B46" s="36" t="s">
         <v>452</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="36" t="s">
         <v>332</v>
       </c>
-      <c r="D46" s="37"/>
-      <c r="E46" s="38" t="s">
+      <c r="D46" s="36"/>
+      <c r="E46" s="37" t="s">
         <v>333</v>
       </c>
-      <c r="F46" s="37" t="s">
+      <c r="F46" s="36" t="s">
         <v>411</v>
       </c>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37" t="s">
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L46" s="37" t="s">
+      <c r="L46" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M46" s="37" t="s">
+      <c r="M46" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37">
-        <v>0</v>
-      </c>
-      <c r="S46" s="37" t="s">
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36">
+        <v>0</v>
+      </c>
+      <c r="S46" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T46" s="37" t="s">
+      <c r="T46" s="36" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="25.5">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37" t="s">
+      <c r="A47" s="36"/>
+      <c r="B47" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="38" t="s">
+      <c r="D47" s="36"/>
+      <c r="E47" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="F47" s="37" t="s">
+      <c r="F47" s="36" t="s">
         <v>302</v>
       </c>
       <c r="G47" s="26"/>
@@ -11759,174 +11783,174 @@
         <v>1</v>
       </c>
       <c r="J47" s="25"/>
-      <c r="K47" s="37" t="s">
+      <c r="K47" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L47" s="37" t="s">
+      <c r="L47" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M47" s="37" t="s">
+      <c r="M47" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N47" s="37" t="s">
+      <c r="N47" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37">
+      <c r="O47" s="36"/>
+      <c r="P47" s="36">
         <v>5</v>
       </c>
-      <c r="Q47" s="37">
-        <v>0</v>
-      </c>
-      <c r="R47" s="37">
-        <v>0</v>
-      </c>
-      <c r="S47" s="37" t="s">
+      <c r="Q47" s="36">
+        <v>0</v>
+      </c>
+      <c r="R47" s="36">
+        <v>0</v>
+      </c>
+      <c r="S47" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T47" s="37" t="s">
+      <c r="T47" s="36" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37" t="s">
+    <row r="48" spans="1:20" hidden="1">
+      <c r="A48" s="36"/>
+      <c r="B48" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="38" t="s">
+      <c r="D48" s="36"/>
+      <c r="E48" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="F48" s="37" t="s">
+      <c r="F48" s="36" t="s">
         <v>386</v>
       </c>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37" t="s">
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L48" s="37" t="s">
+      <c r="L48" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M48" s="37" t="s">
+      <c r="M48" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N48" s="37" t="s">
+      <c r="N48" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37">
+      <c r="O48" s="36"/>
+      <c r="P48" s="36">
         <v>1</v>
       </c>
-      <c r="Q48" s="37">
-        <v>0</v>
-      </c>
-      <c r="R48" s="37">
+      <c r="Q48" s="36">
+        <v>0</v>
+      </c>
+      <c r="R48" s="36">
         <v>1</v>
       </c>
-      <c r="S48" s="37" t="s">
+      <c r="S48" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T48" s="37" t="s">
+      <c r="T48" s="36" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="10" customFormat="1">
-      <c r="A49" s="37"/>
-      <c r="B49" s="37" t="s">
+    <row r="49" spans="1:20" s="10" customFormat="1" hidden="1">
+      <c r="A49" s="36"/>
+      <c r="B49" s="36" t="s">
         <v>436</v>
       </c>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="38" t="s">
+      <c r="D49" s="36"/>
+      <c r="E49" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="F49" s="37" t="s">
+      <c r="F49" s="36" t="s">
         <v>415</v>
       </c>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37" t="s">
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L49" s="37" t="s">
+      <c r="L49" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M49" s="37" t="s">
+      <c r="M49" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N49" s="37" t="s">
+      <c r="N49" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37">
+      <c r="O49" s="36"/>
+      <c r="P49" s="36">
         <v>3</v>
       </c>
-      <c r="Q49" s="37">
-        <v>0</v>
-      </c>
-      <c r="R49" s="37">
-        <v>0</v>
-      </c>
-      <c r="S49" s="37" t="s">
+      <c r="Q49" s="36">
+        <v>0</v>
+      </c>
+      <c r="R49" s="36">
+        <v>0</v>
+      </c>
+      <c r="S49" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="T49" s="37" t="s">
+      <c r="T49" s="36" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="10" customFormat="1" ht="51">
-      <c r="A50" s="37"/>
-      <c r="B50" s="37" t="s">
+    <row r="50" spans="1:20" s="10" customFormat="1" ht="51" hidden="1">
+      <c r="A50" s="36"/>
+      <c r="B50" s="36" t="s">
         <v>442</v>
       </c>
-      <c r="C50" s="37" t="s">
+      <c r="C50" s="36" t="s">
         <v>334</v>
       </c>
-      <c r="D50" s="37"/>
-      <c r="E50" s="38" t="s">
+      <c r="D50" s="36"/>
+      <c r="E50" s="37" t="s">
         <v>335</v>
       </c>
-      <c r="F50" s="37"/>
+      <c r="F50" s="36"/>
       <c r="G50" s="26"/>
       <c r="H50" s="26"/>
       <c r="I50" s="25">
         <v>2</v>
       </c>
       <c r="J50" s="25"/>
-      <c r="K50" s="37" t="s">
+      <c r="K50" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L50" s="37" t="s">
+      <c r="L50" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M50" s="37" t="s">
+      <c r="M50" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37">
-        <v>0</v>
-      </c>
-      <c r="S50" s="37" t="s">
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="36"/>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="36">
+        <v>0</v>
+      </c>
+      <c r="S50" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T50" s="37" t="s">
+      <c r="T50" s="36" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="10" customFormat="1">
+    <row r="51" spans="1:20" s="10" customFormat="1" hidden="1">
       <c r="A51" s="27">
         <v>10</v>
       </c>
@@ -11940,11 +11964,11 @@
       <c r="E51" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F51" s="49" t="s">
+      <c r="F51" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
       <c r="I51" s="27"/>
       <c r="J51" s="27"/>
       <c r="K51" s="27">
@@ -11970,16 +11994,16 @@
       <c r="S51" s="25"/>
       <c r="T51" s="25"/>
     </row>
-    <row r="52" spans="1:20" s="10" customFormat="1">
-      <c r="A52" s="40"/>
+    <row r="52" spans="1:20" s="10" customFormat="1" hidden="1">
+      <c r="A52" s="39"/>
       <c r="B52" s="27" t="s">
         <v>438</v>
       </c>
-      <c r="C52" s="38" t="s">
+      <c r="C52" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38" t="s">
+      <c r="D52" s="37"/>
+      <c r="E52" s="37" t="s">
         <v>271</v>
       </c>
       <c r="F52" s="26" t="s">
@@ -11987,38 +12011,38 @@
       </c>
       <c r="G52" s="26"/>
       <c r="H52" s="26"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="38" t="s">
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="L52" s="38" t="s">
+      <c r="L52" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="M52" s="38" t="s">
+      <c r="M52" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="N52" s="38" t="s">
+      <c r="N52" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="O52" s="38"/>
-      <c r="P52" s="38">
+      <c r="O52" s="37"/>
+      <c r="P52" s="37">
         <v>8</v>
       </c>
-      <c r="Q52" s="38">
-        <v>0</v>
-      </c>
-      <c r="R52" s="38">
-        <v>0</v>
-      </c>
-      <c r="S52" s="38">
-        <v>0</v>
-      </c>
-      <c r="T52" s="38" t="s">
+      <c r="Q52" s="37">
+        <v>0</v>
+      </c>
+      <c r="R52" s="37">
+        <v>0</v>
+      </c>
+      <c r="S52" s="37">
+        <v>0</v>
+      </c>
+      <c r="T52" s="37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="10" customFormat="1" ht="25.5">
+    <row r="53" spans="1:20" s="10" customFormat="1">
       <c r="A53" s="27">
         <v>28</v>
       </c>
@@ -12032,10 +12056,10 @@
       <c r="E53" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="F53" s="49" t="s">
+      <c r="F53" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="G53" s="49"/>
+      <c r="G53" s="48"/>
       <c r="H53" s="26" t="s">
         <v>470</v>
       </c>
@@ -12066,7 +12090,7 @@
       <c r="S53" s="25"/>
       <c r="T53" s="25"/>
     </row>
-    <row r="54" spans="1:20" s="10" customFormat="1">
+    <row r="54" spans="1:20" s="10" customFormat="1" hidden="1">
       <c r="A54" s="27">
         <v>27</v>
       </c>
@@ -12080,11 +12104,11 @@
       <c r="E54" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F54" s="49" t="s">
+      <c r="F54" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
       <c r="I54" s="27"/>
       <c r="J54" s="27"/>
       <c r="K54" s="27">
@@ -12110,7 +12134,7 @@
       <c r="S54" s="25"/>
       <c r="T54" s="25"/>
     </row>
-    <row r="55" spans="1:20" s="10" customFormat="1">
+    <row r="55" spans="1:20" s="10" customFormat="1" hidden="1">
       <c r="A55" s="27">
         <v>19</v>
       </c>
@@ -12124,11 +12148,11 @@
       <c r="E55" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F55" s="49" t="s">
+      <c r="F55" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
       <c r="I55" s="27"/>
       <c r="J55" s="27"/>
       <c r="K55" s="27">
@@ -12154,53 +12178,53 @@
       <c r="S55" s="25"/>
       <c r="T55" s="25"/>
     </row>
-    <row r="56" spans="1:20" s="10" customFormat="1">
-      <c r="A56" s="37"/>
-      <c r="B56" s="37" t="s">
+    <row r="56" spans="1:20" s="10" customFormat="1" hidden="1">
+      <c r="A56" s="36"/>
+      <c r="B56" s="36" t="s">
         <v>436</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="C56" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="38" t="s">
+      <c r="D56" s="36"/>
+      <c r="E56" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="F56" s="37" t="s">
+      <c r="F56" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="G56" s="37" t="s">
+      <c r="G56" s="36" t="s">
         <v>383</v>
       </c>
-      <c r="H56" s="37"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="37" t="s">
+      <c r="H56" s="36"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L56" s="37" t="s">
+      <c r="L56" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M56" s="37" t="s">
+      <c r="M56" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N56" s="37" t="s">
+      <c r="N56" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37">
+      <c r="O56" s="36"/>
+      <c r="P56" s="36">
         <v>3</v>
       </c>
-      <c r="Q56" s="37">
-        <v>0</v>
-      </c>
-      <c r="R56" s="37">
-        <v>0</v>
-      </c>
-      <c r="S56" s="37" t="s">
+      <c r="Q56" s="36">
+        <v>0</v>
+      </c>
+      <c r="R56" s="36">
+        <v>0</v>
+      </c>
+      <c r="S56" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="T56" s="37" t="s">
+      <c r="T56" s="36" t="s">
         <v>308</v>
       </c>
     </row>
@@ -12218,11 +12242,11 @@
       <c r="E57" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F57" s="49" t="s">
+      <c r="F57" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
       <c r="I57" s="27">
         <v>2</v>
       </c>
@@ -12252,112 +12276,112 @@
       <c r="S57" s="25"/>
       <c r="T57" s="25"/>
     </row>
-    <row r="58" spans="1:20" s="10" customFormat="1">
-      <c r="A58" s="37"/>
-      <c r="B58" s="37" t="s">
+    <row r="58" spans="1:20" s="10" customFormat="1" hidden="1">
+      <c r="A58" s="36"/>
+      <c r="B58" s="36" t="s">
         <v>442</v>
       </c>
-      <c r="C58" s="37" t="s">
+      <c r="C58" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="38" t="s">
+      <c r="D58" s="36"/>
+      <c r="E58" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="F58" s="37" t="s">
+      <c r="F58" s="36" t="s">
         <v>372</v>
       </c>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37" t="s">
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L58" s="37" t="s">
+      <c r="L58" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M58" s="37" t="s">
+      <c r="M58" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N58" s="37" t="s">
+      <c r="N58" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37">
+      <c r="O58" s="36"/>
+      <c r="P58" s="36">
         <v>10</v>
       </c>
-      <c r="Q58" s="37">
-        <v>0</v>
-      </c>
-      <c r="R58" s="37">
-        <v>0</v>
-      </c>
-      <c r="S58" s="37" t="s">
+      <c r="Q58" s="36">
+        <v>0</v>
+      </c>
+      <c r="R58" s="36">
+        <v>0</v>
+      </c>
+      <c r="S58" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T58" s="37" t="s">
+      <c r="T58" s="36" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="59" spans="1:20" s="10" customFormat="1">
-      <c r="A59" s="37"/>
-      <c r="B59" s="37" t="s">
+    <row r="59" spans="1:20" s="10" customFormat="1" hidden="1">
+      <c r="A59" s="36"/>
+      <c r="B59" s="36" t="s">
         <v>442</v>
       </c>
-      <c r="C59" s="37" t="s">
+      <c r="C59" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="D59" s="37"/>
-      <c r="E59" s="38" t="s">
+      <c r="D59" s="36"/>
+      <c r="E59" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="F59" s="37" t="s">
+      <c r="F59" s="36" t="s">
         <v>373</v>
       </c>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37" t="s">
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L59" s="37" t="s">
+      <c r="L59" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M59" s="37" t="s">
+      <c r="M59" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N59" s="37" t="s">
+      <c r="N59" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37">
+      <c r="O59" s="36"/>
+      <c r="P59" s="36">
         <v>10</v>
       </c>
-      <c r="Q59" s="37">
-        <v>0</v>
-      </c>
-      <c r="R59" s="37">
-        <v>0</v>
-      </c>
-      <c r="S59" s="37" t="s">
+      <c r="Q59" s="36">
+        <v>0</v>
+      </c>
+      <c r="R59" s="36">
+        <v>0</v>
+      </c>
+      <c r="S59" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T59" s="37" t="s">
+      <c r="T59" s="36" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="10" customFormat="1">
-      <c r="A60" s="40"/>
-      <c r="B60" s="40" t="s">
+    <row r="60" spans="1:20" s="10" customFormat="1" hidden="1">
+      <c r="A60" s="39"/>
+      <c r="B60" s="39" t="s">
         <v>442</v>
       </c>
-      <c r="C60" s="38" t="s">
+      <c r="C60" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38" t="s">
+      <c r="D60" s="37"/>
+      <c r="E60" s="37" t="s">
         <v>277</v>
       </c>
       <c r="F60" s="26" t="s">
@@ -12365,92 +12389,92 @@
       </c>
       <c r="G60" s="26"/>
       <c r="H60" s="26"/>
-      <c r="I60" s="43">
-        <v>2</v>
-      </c>
-      <c r="J60" s="43"/>
-      <c r="K60" s="38" t="s">
+      <c r="I60" s="42">
+        <v>2</v>
+      </c>
+      <c r="J60" s="42"/>
+      <c r="K60" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="L60" s="38" t="s">
+      <c r="L60" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="M60" s="38" t="s">
+      <c r="M60" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="N60" s="38" t="s">
+      <c r="N60" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="O60" s="38"/>
-      <c r="P60" s="38">
+      <c r="O60" s="37"/>
+      <c r="P60" s="37">
         <v>13</v>
       </c>
-      <c r="Q60" s="38">
-        <v>0</v>
-      </c>
-      <c r="R60" s="38">
-        <v>0</v>
-      </c>
-      <c r="S60" s="38">
-        <v>0</v>
-      </c>
-      <c r="T60" s="38" t="s">
+      <c r="Q60" s="37">
+        <v>0</v>
+      </c>
+      <c r="R60" s="37">
+        <v>0</v>
+      </c>
+      <c r="S60" s="37">
+        <v>0</v>
+      </c>
+      <c r="T60" s="37" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:20" s="10" customFormat="1" ht="25.5">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40" t="s">
+      <c r="A61" s="39"/>
+      <c r="B61" s="39" t="s">
         <v>455</v>
       </c>
-      <c r="C61" s="38" t="s">
+      <c r="C61" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38" t="s">
+      <c r="D61" s="37"/>
+      <c r="E61" s="37" t="s">
         <v>279</v>
       </c>
       <c r="F61" s="26" t="s">
         <v>432</v>
       </c>
       <c r="G61" s="26"/>
-      <c r="H61" s="49" t="s">
+      <c r="H61" s="48" t="s">
         <v>472</v>
       </c>
-      <c r="I61" s="43">
-        <v>2</v>
-      </c>
-      <c r="J61" s="43"/>
-      <c r="K61" s="38" t="s">
+      <c r="I61" s="42">
+        <v>2</v>
+      </c>
+      <c r="J61" s="42"/>
+      <c r="K61" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="L61" s="38" t="s">
+      <c r="L61" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="M61" s="38" t="s">
+      <c r="M61" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="N61" s="38" t="s">
+      <c r="N61" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="O61" s="38"/>
-      <c r="P61" s="38">
+      <c r="O61" s="37"/>
+      <c r="P61" s="37">
         <v>40</v>
       </c>
-      <c r="Q61" s="38">
-        <v>0</v>
-      </c>
-      <c r="R61" s="38">
-        <v>0</v>
-      </c>
-      <c r="S61" s="38">
-        <v>0</v>
-      </c>
-      <c r="T61" s="38" t="s">
+      <c r="Q61" s="37">
+        <v>0</v>
+      </c>
+      <c r="R61" s="37">
+        <v>0</v>
+      </c>
+      <c r="S61" s="37">
+        <v>0</v>
+      </c>
+      <c r="T61" s="37" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="62" spans="1:20" s="10" customFormat="1">
+    <row r="62" spans="1:20" s="10" customFormat="1" hidden="1">
       <c r="A62" s="27">
         <v>11</v>
       </c>
@@ -12464,13 +12488,13 @@
       <c r="E62" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F62" s="49" t="s">
+      <c r="F62" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="G62" s="52" t="s">
+      <c r="G62" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="H62" s="52"/>
+      <c r="H62" s="51"/>
       <c r="I62" s="27"/>
       <c r="J62" s="27"/>
       <c r="K62" s="27">
@@ -12510,13 +12534,13 @@
       <c r="E63" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F63" s="49" t="s">
+      <c r="F63" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="G63" s="49" t="s">
+      <c r="G63" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="H63" s="49"/>
+      <c r="H63" s="48"/>
       <c r="I63" s="27">
         <v>3</v>
       </c>
@@ -12544,16 +12568,16 @@
       <c r="S63" s="25"/>
       <c r="T63" s="25"/>
     </row>
-    <row r="64" spans="1:20" s="10" customFormat="1">
-      <c r="A64" s="40"/>
-      <c r="B64" s="40" t="s">
+    <row r="64" spans="1:20" s="10" customFormat="1" hidden="1">
+      <c r="A64" s="39"/>
+      <c r="B64" s="39" t="s">
         <v>454</v>
       </c>
-      <c r="C64" s="38" t="s">
+      <c r="C64" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38" t="s">
+      <c r="D64" s="37"/>
+      <c r="E64" s="37" t="s">
         <v>273</v>
       </c>
       <c r="F64" s="26" t="s">
@@ -12561,38 +12585,38 @@
       </c>
       <c r="G64" s="26"/>
       <c r="H64" s="26"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="38" t="s">
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="L64" s="38" t="s">
+      <c r="L64" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="M64" s="38" t="s">
+      <c r="M64" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="N64" s="38" t="s">
+      <c r="N64" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="O64" s="38"/>
-      <c r="P64" s="38">
+      <c r="O64" s="37"/>
+      <c r="P64" s="37">
         <v>5</v>
       </c>
-      <c r="Q64" s="38">
-        <v>0</v>
-      </c>
-      <c r="R64" s="38">
-        <v>0</v>
-      </c>
-      <c r="S64" s="38">
-        <v>0</v>
-      </c>
-      <c r="T64" s="38" t="s">
+      <c r="Q64" s="37">
+        <v>0</v>
+      </c>
+      <c r="R64" s="37">
+        <v>0</v>
+      </c>
+      <c r="S64" s="37">
+        <v>0</v>
+      </c>
+      <c r="T64" s="37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:20" s="10" customFormat="1">
+    <row r="65" spans="1:20" s="10" customFormat="1" hidden="1">
       <c r="A65" s="27">
         <v>29</v>
       </c>
@@ -12606,11 +12630,11 @@
       <c r="E65" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="F65" s="49" t="s">
+      <c r="F65" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="G65" s="52"/>
-      <c r="H65" s="52"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
       <c r="I65" s="27"/>
       <c r="J65" s="27"/>
       <c r="K65" s="27">
@@ -12650,11 +12674,11 @@
       <c r="E66" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F66" s="49" t="s">
+      <c r="F66" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
       <c r="I66" s="27">
         <v>3</v>
       </c>
@@ -12682,51 +12706,51 @@
       <c r="S66" s="25"/>
       <c r="T66" s="25"/>
     </row>
-    <row r="67" spans="1:20" s="10" customFormat="1">
-      <c r="A67" s="37"/>
-      <c r="B67" s="37" t="s">
+    <row r="67" spans="1:20" s="10" customFormat="1" hidden="1">
+      <c r="A67" s="36"/>
+      <c r="B67" s="36" t="s">
         <v>449</v>
       </c>
-      <c r="C67" s="37" t="s">
+      <c r="C67" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="38" t="s">
+      <c r="D67" s="36"/>
+      <c r="E67" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="F67" s="37" t="s">
+      <c r="F67" s="36" t="s">
         <v>395</v>
       </c>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="37"/>
-      <c r="K67" s="37" t="s">
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L67" s="37" t="s">
+      <c r="L67" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M67" s="37" t="s">
+      <c r="M67" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N67" s="37" t="s">
+      <c r="N67" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37">
+      <c r="O67" s="36"/>
+      <c r="P67" s="36">
         <v>20</v>
       </c>
-      <c r="Q67" s="37">
-        <v>0</v>
-      </c>
-      <c r="R67" s="37">
-        <v>0</v>
-      </c>
-      <c r="S67" s="37" t="s">
+      <c r="Q67" s="36">
+        <v>0</v>
+      </c>
+      <c r="R67" s="36">
+        <v>0</v>
+      </c>
+      <c r="S67" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="T67" s="37" t="s">
+      <c r="T67" s="36" t="s">
         <v>316</v>
       </c>
     </row>
@@ -12744,11 +12768,11 @@
       <c r="E68" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F68" s="49" t="s">
+      <c r="F68" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
       <c r="I68" s="27">
         <v>3</v>
       </c>
@@ -12776,7 +12800,7 @@
       <c r="S68" s="25"/>
       <c r="T68" s="25"/>
     </row>
-    <row r="69" spans="1:20" s="10" customFormat="1">
+    <row r="69" spans="1:20" s="10" customFormat="1" hidden="1">
       <c r="A69" s="27">
         <v>6</v>
       </c>
@@ -12790,11 +12814,11 @@
       <c r="E69" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="49" t="s">
+      <c r="F69" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="G69" s="52"/>
-      <c r="H69" s="52"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
       <c r="I69" s="27"/>
       <c r="J69" s="27"/>
       <c r="K69" s="27">
@@ -12834,13 +12858,13 @@
       <c r="E70" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F70" s="49" t="s">
+      <c r="F70" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="G70" s="49" t="s">
+      <c r="G70" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="H70" s="49"/>
+      <c r="H70" s="48"/>
       <c r="I70" s="27">
         <v>3</v>
       </c>
@@ -12868,49 +12892,49 @@
       <c r="S70" s="25"/>
       <c r="T70" s="25"/>
     </row>
-    <row r="71" spans="1:20" s="10" customFormat="1">
-      <c r="A71" s="33">
+    <row r="71" spans="1:20" s="10" customFormat="1" hidden="1">
+      <c r="A71" s="32">
         <v>44</v>
       </c>
-      <c r="B71" s="33" t="s">
+      <c r="B71" s="32" t="s">
         <v>445</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="C71" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="35" t="s">
+      <c r="D71" s="33"/>
+      <c r="E71" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F71" s="53" t="s">
+      <c r="F71" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="G71" s="54"/>
-      <c r="H71" s="54"/>
-      <c r="I71" s="33"/>
-      <c r="J71" s="33"/>
-      <c r="K71" s="33"/>
-      <c r="L71" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M71" s="33" t="s">
+      <c r="G71" s="53"/>
+      <c r="H71" s="53"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M71" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="N71" s="33"/>
-      <c r="O71" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="P71" s="33"/>
-      <c r="Q71" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="R71" s="36">
+      <c r="N71" s="32"/>
+      <c r="O71" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="P71" s="32"/>
+      <c r="Q71" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="R71" s="35">
         <v>41386</v>
       </c>
       <c r="S71" s="25"/>
       <c r="T71" s="25"/>
     </row>
-    <row r="72" spans="1:20" s="10" customFormat="1" ht="38.25">
+    <row r="72" spans="1:20" s="10" customFormat="1" ht="38.25" hidden="1">
       <c r="A72" s="27">
         <v>21</v>
       </c>
@@ -12924,11 +12948,11 @@
       <c r="E72" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F72" s="49" t="s">
+      <c r="F72" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
+      <c r="G72" s="51"/>
+      <c r="H72" s="51"/>
       <c r="I72" s="27"/>
       <c r="J72" s="27"/>
       <c r="K72" s="27"/>
@@ -12952,7 +12976,7 @@
       <c r="S72" s="25"/>
       <c r="T72" s="25"/>
     </row>
-    <row r="73" spans="1:20" s="10" customFormat="1" ht="25.5">
+    <row r="73" spans="1:20" s="10" customFormat="1" ht="25.5" hidden="1">
       <c r="A73" s="27">
         <v>22</v>
       </c>
@@ -12966,11 +12990,11 @@
       <c r="E73" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F73" s="49" t="s">
+      <c r="F73" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="G73" s="52"/>
-      <c r="H73" s="52"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="51"/>
       <c r="I73" s="27"/>
       <c r="J73" s="27"/>
       <c r="K73" s="27"/>
@@ -12994,7 +13018,7 @@
       <c r="S73" s="25"/>
       <c r="T73" s="25"/>
     </row>
-    <row r="74" spans="1:20" s="10" customFormat="1" ht="25.5">
+    <row r="74" spans="1:20" s="10" customFormat="1" ht="25.5" hidden="1">
       <c r="A74" s="27">
         <v>23</v>
       </c>
@@ -13008,11 +13032,11 @@
       <c r="E74" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F74" s="49" t="s">
+      <c r="F74" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="G74" s="52"/>
-      <c r="H74" s="52"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="51"/>
       <c r="I74" s="27"/>
       <c r="J74" s="27"/>
       <c r="K74" s="27"/>
@@ -13050,13 +13074,13 @@
       <c r="E75" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="F75" s="49" t="s">
+      <c r="F75" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="G75" s="49" t="s">
+      <c r="G75" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="H75" s="49"/>
+      <c r="H75" s="48"/>
       <c r="I75" s="27">
         <v>3</v>
       </c>
@@ -13098,13 +13122,13 @@
       <c r="E76" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F76" s="49" t="s">
+      <c r="F76" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="G76" s="49" t="s">
+      <c r="G76" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="H76" s="49"/>
+      <c r="H76" s="48"/>
       <c r="I76" s="27">
         <v>3</v>
       </c>
@@ -13146,13 +13170,13 @@
       <c r="E77" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F77" s="49" t="s">
+      <c r="F77" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="G77" s="49" t="s">
+      <c r="G77" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="H77" s="49"/>
+      <c r="H77" s="48"/>
       <c r="I77" s="27">
         <v>3</v>
       </c>
@@ -13181,18 +13205,18 @@
       <c r="T77" s="25"/>
     </row>
     <row r="78" spans="1:20" s="10" customFormat="1" ht="25.5">
-      <c r="A78" s="37"/>
-      <c r="B78" s="37" t="s">
+      <c r="A78" s="36"/>
+      <c r="B78" s="36" t="s">
         <v>441</v>
       </c>
-      <c r="C78" s="37" t="s">
+      <c r="C78" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="D78" s="37"/>
-      <c r="E78" s="38" t="s">
+      <c r="D78" s="36"/>
+      <c r="E78" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="F78" s="37" t="s">
+      <c r="F78" s="36" t="s">
         <v>297</v>
       </c>
       <c r="G78" s="26" t="s">
@@ -13201,49 +13225,49 @@
       <c r="H78" s="26" t="s">
         <v>473</v>
       </c>
-      <c r="I78" s="43">
+      <c r="I78" s="42">
         <v>5</v>
       </c>
-      <c r="J78" s="43"/>
-      <c r="K78" s="37" t="s">
+      <c r="J78" s="42"/>
+      <c r="K78" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L78" s="37" t="s">
+      <c r="L78" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M78" s="37" t="s">
+      <c r="M78" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N78" s="37" t="s">
+      <c r="N78" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O78" s="37"/>
-      <c r="P78" s="37">
+      <c r="O78" s="36"/>
+      <c r="P78" s="36">
         <v>10</v>
       </c>
-      <c r="Q78" s="37">
-        <v>0</v>
-      </c>
-      <c r="R78" s="37">
-        <v>0</v>
-      </c>
-      <c r="S78" s="37" t="s">
+      <c r="Q78" s="36">
+        <v>0</v>
+      </c>
+      <c r="R78" s="36">
+        <v>0</v>
+      </c>
+      <c r="S78" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="T78" s="37" t="s">
+      <c r="T78" s="36" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="79" spans="1:20" s="10" customFormat="1">
-      <c r="A79" s="40"/>
-      <c r="B79" s="40" t="s">
+    <row r="79" spans="1:20" s="10" customFormat="1" hidden="1">
+      <c r="A79" s="39"/>
+      <c r="B79" s="39" t="s">
         <v>285</v>
       </c>
-      <c r="C79" s="38" t="s">
+      <c r="C79" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="D79" s="38"/>
-      <c r="E79" s="38" t="s">
+      <c r="D79" s="37"/>
+      <c r="E79" s="37" t="s">
         <v>265</v>
       </c>
       <c r="F79" s="26" t="s">
@@ -13253,38 +13277,38 @@
         <v>423</v>
       </c>
       <c r="H79" s="26"/>
-      <c r="I79" s="41"/>
-      <c r="J79" s="41"/>
-      <c r="K79" s="38" t="s">
+      <c r="I79" s="40"/>
+      <c r="J79" s="40"/>
+      <c r="K79" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="L79" s="38" t="s">
+      <c r="L79" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="M79" s="38" t="s">
+      <c r="M79" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="N79" s="38" t="s">
+      <c r="N79" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="O79" s="38"/>
-      <c r="P79" s="38">
+      <c r="O79" s="37"/>
+      <c r="P79" s="37">
         <v>1</v>
       </c>
-      <c r="Q79" s="38">
-        <v>0</v>
-      </c>
-      <c r="R79" s="38">
-        <v>0</v>
-      </c>
-      <c r="S79" s="38">
+      <c r="Q79" s="37">
+        <v>0</v>
+      </c>
+      <c r="R79" s="37">
+        <v>0</v>
+      </c>
+      <c r="S79" s="37">
         <v>1</v>
       </c>
-      <c r="T79" s="38" t="s">
+      <c r="T79" s="37" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:20" s="10" customFormat="1">
+    <row r="80" spans="1:20" s="10" customFormat="1" hidden="1">
       <c r="A80" s="27">
         <v>1</v>
       </c>
@@ -13298,11 +13322,11 @@
       <c r="E80" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F80" s="49" t="s">
+      <c r="F80" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="G80" s="52"/>
-      <c r="H80" s="52"/>
+      <c r="G80" s="51"/>
+      <c r="H80" s="51"/>
       <c r="I80" s="27"/>
       <c r="J80" s="27"/>
       <c r="K80" s="27">
@@ -13329,18 +13353,18 @@
       <c r="T80" s="25"/>
     </row>
     <row r="81" spans="1:20" s="10" customFormat="1" ht="25.5">
-      <c r="A81" s="37"/>
-      <c r="B81" s="37" t="s">
+      <c r="A81" s="36"/>
+      <c r="B81" s="36" t="s">
         <v>439</v>
       </c>
-      <c r="C81" s="37" t="s">
+      <c r="C81" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="D81" s="37"/>
-      <c r="E81" s="38" t="s">
+      <c r="D81" s="36"/>
+      <c r="E81" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="F81" s="37" t="s">
+      <c r="F81" s="36" t="s">
         <v>296</v>
       </c>
       <c r="G81" s="26"/>
@@ -13351,130 +13375,130 @@
         <v>5</v>
       </c>
       <c r="J81" s="25"/>
-      <c r="K81" s="37" t="s">
+      <c r="K81" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L81" s="37" t="s">
+      <c r="L81" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M81" s="37" t="s">
+      <c r="M81" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N81" s="37" t="s">
+      <c r="N81" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O81" s="37"/>
-      <c r="P81" s="37">
-        <v>2</v>
-      </c>
-      <c r="Q81" s="37">
-        <v>0</v>
-      </c>
-      <c r="R81" s="37">
-        <v>0</v>
-      </c>
-      <c r="S81" s="37" t="s">
+      <c r="O81" s="36"/>
+      <c r="P81" s="36">
+        <v>2</v>
+      </c>
+      <c r="Q81" s="36">
+        <v>0</v>
+      </c>
+      <c r="R81" s="36">
+        <v>0</v>
+      </c>
+      <c r="S81" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T81" s="37"/>
-    </row>
-    <row r="82" spans="1:20" s="10" customFormat="1">
-      <c r="A82" s="37"/>
-      <c r="B82" s="37" t="s">
+      <c r="T81" s="36"/>
+    </row>
+    <row r="82" spans="1:20" s="10" customFormat="1" hidden="1">
+      <c r="A82" s="36"/>
+      <c r="B82" s="36" t="s">
         <v>453</v>
       </c>
-      <c r="C82" s="37" t="s">
+      <c r="C82" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="D82" s="37"/>
-      <c r="E82" s="38" t="s">
+      <c r="D82" s="36"/>
+      <c r="E82" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="F82" s="37" t="s">
+      <c r="F82" s="36" t="s">
         <v>405</v>
       </c>
-      <c r="G82" s="37"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="37"/>
-      <c r="K82" s="37" t="s">
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L82" s="37" t="s">
+      <c r="L82" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M82" s="37" t="s">
+      <c r="M82" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N82" s="37" t="s">
+      <c r="N82" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O82" s="37"/>
-      <c r="P82" s="37">
+      <c r="O82" s="36"/>
+      <c r="P82" s="36">
         <v>5</v>
       </c>
-      <c r="Q82" s="37">
+      <c r="Q82" s="36">
         <v>3</v>
       </c>
-      <c r="R82" s="37">
-        <v>0</v>
-      </c>
-      <c r="S82" s="37" t="s">
+      <c r="R82" s="36">
+        <v>0</v>
+      </c>
+      <c r="S82" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T82" s="37" t="s">
+      <c r="T82" s="36" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="10" customFormat="1">
-      <c r="A83" s="37"/>
-      <c r="B83" s="37" t="s">
+    <row r="83" spans="1:20" s="10" customFormat="1" hidden="1">
+      <c r="A83" s="36"/>
+      <c r="B83" s="36" t="s">
         <v>453</v>
       </c>
-      <c r="C83" s="37" t="s">
+      <c r="C83" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="38" t="s">
+      <c r="D83" s="36"/>
+      <c r="E83" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="F83" s="37" t="s">
+      <c r="F83" s="36" t="s">
         <v>407</v>
       </c>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="37"/>
-      <c r="K83" s="37" t="s">
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L83" s="37" t="s">
+      <c r="L83" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M83" s="37" t="s">
+      <c r="M83" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N83" s="37" t="s">
+      <c r="N83" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O83" s="37"/>
-      <c r="P83" s="37">
+      <c r="O83" s="36"/>
+      <c r="P83" s="36">
         <v>1</v>
       </c>
-      <c r="Q83" s="37">
-        <v>0</v>
-      </c>
-      <c r="R83" s="37">
-        <v>0</v>
-      </c>
-      <c r="S83" s="37" t="s">
+      <c r="Q83" s="36">
+        <v>0</v>
+      </c>
+      <c r="R83" s="36">
+        <v>0</v>
+      </c>
+      <c r="S83" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="T83" s="37" t="s">
+      <c r="T83" s="36" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="10" customFormat="1">
+    <row r="84" spans="1:20" s="10" customFormat="1" hidden="1">
       <c r="A84" s="27">
         <v>18</v>
       </c>
@@ -13488,13 +13512,13 @@
       <c r="E84" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F84" s="49" t="s">
+      <c r="F84" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="G84" s="52" t="s">
+      <c r="G84" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="H84" s="52"/>
+      <c r="H84" s="51"/>
       <c r="I84" s="27"/>
       <c r="J84" s="27"/>
       <c r="K84" s="27">
@@ -13520,16 +13544,16 @@
       <c r="S84" s="25"/>
       <c r="T84" s="25"/>
     </row>
-    <row r="85" spans="1:20" s="10" customFormat="1">
-      <c r="A85" s="40"/>
-      <c r="B85" s="40" t="s">
+    <row r="85" spans="1:20" s="10" customFormat="1" hidden="1">
+      <c r="A85" s="39"/>
+      <c r="B85" s="39" t="s">
         <v>436</v>
       </c>
-      <c r="C85" s="38" t="s">
+      <c r="C85" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38" t="s">
+      <c r="D85" s="37"/>
+      <c r="E85" s="37" t="s">
         <v>263</v>
       </c>
       <c r="F85" s="26" t="s">
@@ -13537,47 +13561,47 @@
       </c>
       <c r="G85" s="26"/>
       <c r="H85" s="26"/>
-      <c r="I85" s="41"/>
-      <c r="J85" s="41"/>
-      <c r="K85" s="38" t="s">
+      <c r="I85" s="40"/>
+      <c r="J85" s="40"/>
+      <c r="K85" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="L85" s="38" t="s">
+      <c r="L85" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="M85" s="38" t="s">
+      <c r="M85" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="N85" s="38" t="s">
+      <c r="N85" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="O85" s="38"/>
-      <c r="P85" s="38">
+      <c r="O85" s="37"/>
+      <c r="P85" s="37">
         <v>3</v>
       </c>
-      <c r="Q85" s="38">
-        <v>0</v>
-      </c>
-      <c r="R85" s="38">
-        <v>0</v>
-      </c>
-      <c r="S85" s="38">
-        <v>0</v>
-      </c>
-      <c r="T85" s="38" t="s">
+      <c r="Q85" s="37">
+        <v>0</v>
+      </c>
+      <c r="R85" s="37">
+        <v>0</v>
+      </c>
+      <c r="S85" s="37">
+        <v>0</v>
+      </c>
+      <c r="T85" s="37" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="10" customFormat="1">
-      <c r="A86" s="40"/>
-      <c r="B86" s="40" t="s">
+    <row r="86" spans="1:20" s="10" customFormat="1" hidden="1">
+      <c r="A86" s="39"/>
+      <c r="B86" s="39" t="s">
         <v>285</v>
       </c>
-      <c r="C86" s="38" t="s">
+      <c r="C86" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38" t="s">
+      <c r="D86" s="37"/>
+      <c r="E86" s="37" t="s">
         <v>267</v>
       </c>
       <c r="F86" s="26" t="s">
@@ -13587,236 +13611,236 @@
         <v>425</v>
       </c>
       <c r="H86" s="26"/>
-      <c r="I86" s="41"/>
-      <c r="J86" s="41"/>
-      <c r="K86" s="38" t="s">
+      <c r="I86" s="40"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="L86" s="38" t="s">
+      <c r="L86" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="M86" s="38" t="s">
+      <c r="M86" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="N86" s="38" t="s">
+      <c r="N86" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="O86" s="38"/>
-      <c r="P86" s="38">
+      <c r="O86" s="37"/>
+      <c r="P86" s="37">
         <v>1</v>
       </c>
-      <c r="Q86" s="38">
-        <v>0</v>
-      </c>
-      <c r="R86" s="38">
-        <v>0</v>
-      </c>
-      <c r="S86" s="38">
+      <c r="Q86" s="37">
+        <v>0</v>
+      </c>
+      <c r="R86" s="37">
+        <v>0</v>
+      </c>
+      <c r="S86" s="37">
         <v>1</v>
       </c>
-      <c r="T86" s="38" t="s">
+      <c r="T86" s="37" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="10" customFormat="1">
-      <c r="A87" s="37"/>
-      <c r="B87" s="37" t="s">
+    <row r="87" spans="1:20" s="10" customFormat="1" hidden="1">
+      <c r="A87" s="36"/>
+      <c r="B87" s="36" t="s">
         <v>452</v>
       </c>
-      <c r="C87" s="37" t="s">
+      <c r="C87" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="D87" s="37"/>
-      <c r="E87" s="38" t="s">
+      <c r="D87" s="36"/>
+      <c r="E87" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="F87" s="37" t="s">
+      <c r="F87" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="G87" s="37" t="s">
+      <c r="G87" s="36" t="s">
         <v>410</v>
       </c>
-      <c r="H87" s="37"/>
-      <c r="I87" s="38"/>
-      <c r="J87" s="38"/>
-      <c r="K87" s="37" t="s">
+      <c r="H87" s="36"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="37"/>
+      <c r="K87" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L87" s="37" t="s">
+      <c r="L87" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M87" s="37" t="s">
+      <c r="M87" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N87" s="37" t="s">
+      <c r="N87" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O87" s="37"/>
-      <c r="P87" s="37">
+      <c r="O87" s="36"/>
+      <c r="P87" s="36">
         <v>1</v>
       </c>
-      <c r="Q87" s="37">
-        <v>0</v>
-      </c>
-      <c r="R87" s="37">
-        <v>2</v>
-      </c>
-      <c r="S87" s="37" t="s">
+      <c r="Q87" s="36">
+        <v>0</v>
+      </c>
+      <c r="R87" s="36">
+        <v>2</v>
+      </c>
+      <c r="S87" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="T87" s="37" t="s">
+      <c r="T87" s="36" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="10" customFormat="1" ht="25.5">
-      <c r="A88" s="37"/>
-      <c r="B88" s="37" t="s">
+    <row r="88" spans="1:20" s="10" customFormat="1" ht="25.5" hidden="1">
+      <c r="A88" s="36"/>
+      <c r="B88" s="36" t="s">
         <v>451</v>
       </c>
-      <c r="C88" s="37" t="s">
+      <c r="C88" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="D88" s="37"/>
-      <c r="E88" s="38" t="s">
+      <c r="D88" s="36"/>
+      <c r="E88" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="F88" s="37" t="s">
+      <c r="F88" s="36" t="s">
         <v>416</v>
       </c>
-      <c r="G88" s="37" t="s">
+      <c r="G88" s="36" t="s">
         <v>417</v>
       </c>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="37"/>
-      <c r="K88" s="37" t="s">
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L88" s="37" t="s">
+      <c r="L88" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M88" s="37" t="s">
+      <c r="M88" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N88" s="37" t="s">
+      <c r="N88" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O88" s="37"/>
-      <c r="P88" s="37">
+      <c r="O88" s="36"/>
+      <c r="P88" s="36">
         <v>10</v>
       </c>
-      <c r="Q88" s="37">
-        <v>0</v>
-      </c>
-      <c r="R88" s="37">
-        <v>0</v>
-      </c>
-      <c r="S88" s="37" t="s">
+      <c r="Q88" s="36">
+        <v>0</v>
+      </c>
+      <c r="R88" s="36">
+        <v>0</v>
+      </c>
+      <c r="S88" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="T88" s="37" t="s">
+      <c r="T88" s="36" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="10" customFormat="1">
-      <c r="A89" s="37"/>
-      <c r="B89" s="37" t="s">
+    <row r="89" spans="1:20" s="10" customFormat="1" hidden="1">
+      <c r="A89" s="36"/>
+      <c r="B89" s="36" t="s">
         <v>451</v>
       </c>
-      <c r="C89" s="37" t="s">
+      <c r="C89" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="D89" s="37"/>
-      <c r="E89" s="38" t="s">
+      <c r="D89" s="36"/>
+      <c r="E89" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="F89" s="37" t="s">
+      <c r="F89" s="36" t="s">
         <v>401</v>
       </c>
-      <c r="G89" s="37" t="s">
+      <c r="G89" s="36" t="s">
         <v>402</v>
       </c>
-      <c r="H89" s="37"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="38"/>
-      <c r="K89" s="37" t="s">
+      <c r="H89" s="36"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="37"/>
+      <c r="K89" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L89" s="37" t="s">
+      <c r="L89" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M89" s="37" t="s">
+      <c r="M89" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N89" s="37" t="s">
+      <c r="N89" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O89" s="37"/>
-      <c r="P89" s="37">
+      <c r="O89" s="36"/>
+      <c r="P89" s="36">
         <v>15</v>
       </c>
-      <c r="Q89" s="37">
+      <c r="Q89" s="36">
         <v>13</v>
       </c>
-      <c r="R89" s="37">
+      <c r="R89" s="36">
         <v>13</v>
       </c>
-      <c r="S89" s="37" t="s">
+      <c r="S89" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="T89" s="37" t="s">
+      <c r="T89" s="36" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="10" customFormat="1">
-      <c r="A90" s="37"/>
-      <c r="B90" s="37" t="s">
+    <row r="90" spans="1:20" s="10" customFormat="1" hidden="1">
+      <c r="A90" s="36"/>
+      <c r="B90" s="36" t="s">
         <v>443</v>
       </c>
-      <c r="C90" s="37" t="s">
+      <c r="C90" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="D90" s="37"/>
-      <c r="E90" s="38" t="s">
+      <c r="D90" s="36"/>
+      <c r="E90" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="F90" s="37" t="s">
+      <c r="F90" s="36" t="s">
         <v>412</v>
       </c>
-      <c r="G90" s="37"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="37"/>
-      <c r="K90" s="37" t="s">
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L90" s="37" t="s">
+      <c r="L90" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M90" s="37" t="s">
+      <c r="M90" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N90" s="37" t="s">
+      <c r="N90" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O90" s="37"/>
-      <c r="P90" s="37">
+      <c r="O90" s="36"/>
+      <c r="P90" s="36">
         <v>1</v>
       </c>
-      <c r="Q90" s="37">
-        <v>0</v>
-      </c>
-      <c r="R90" s="37">
-        <v>0</v>
-      </c>
-      <c r="S90" s="37" t="s">
+      <c r="Q90" s="36">
+        <v>0</v>
+      </c>
+      <c r="R90" s="36">
+        <v>0</v>
+      </c>
+      <c r="S90" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T90" s="37" t="s">
+      <c r="T90" s="36" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="91" spans="1:20" s="10" customFormat="1">
+    <row r="91" spans="1:20" s="10" customFormat="1" hidden="1">
       <c r="A91" s="27">
         <v>17</v>
       </c>
@@ -13830,11 +13854,11 @@
       <c r="E91" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F91" s="49" t="s">
+      <c r="F91" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="G91" s="52"/>
-      <c r="H91" s="52"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="51"/>
       <c r="I91" s="27"/>
       <c r="J91" s="27"/>
       <c r="K91" s="27">
@@ -13860,7 +13884,7 @@
       <c r="S91" s="25"/>
       <c r="T91" s="25"/>
     </row>
-    <row r="92" spans="1:20" s="10" customFormat="1">
+    <row r="92" spans="1:20" s="10" customFormat="1" hidden="1">
       <c r="A92" s="27">
         <v>37</v>
       </c>
@@ -13874,11 +13898,11 @@
       <c r="E92" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="F92" s="49" t="s">
+      <c r="F92" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="G92" s="52"/>
-      <c r="H92" s="52"/>
+      <c r="G92" s="51"/>
+      <c r="H92" s="51"/>
       <c r="I92" s="27"/>
       <c r="J92" s="27"/>
       <c r="K92" s="27">
@@ -13905,18 +13929,18 @@
       <c r="T92" s="25"/>
     </row>
     <row r="93" spans="1:20" s="10" customFormat="1">
-      <c r="A93" s="37"/>
-      <c r="B93" s="37" t="s">
+      <c r="A93" s="36"/>
+      <c r="B93" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="C93" s="37" t="s">
+      <c r="C93" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="38" t="s">
+      <c r="D93" s="36"/>
+      <c r="E93" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="F93" s="37" t="s">
+      <c r="F93" s="36" t="s">
         <v>294</v>
       </c>
       <c r="G93" s="26"/>
@@ -13927,30 +13951,30 @@
         <v>448</v>
       </c>
       <c r="J93" s="25"/>
-      <c r="K93" s="37" t="s">
+      <c r="K93" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L93" s="37" t="s">
+      <c r="L93" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M93" s="37" t="s">
+      <c r="M93" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N93" s="37" t="s">
+      <c r="N93" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O93" s="37"/>
-      <c r="P93" s="37"/>
-      <c r="Q93" s="37">
-        <v>0</v>
-      </c>
-      <c r="R93" s="37">
-        <v>0</v>
-      </c>
-      <c r="S93" s="37" t="s">
+      <c r="O93" s="36"/>
+      <c r="P93" s="36"/>
+      <c r="Q93" s="36">
+        <v>0</v>
+      </c>
+      <c r="R93" s="36">
+        <v>0</v>
+      </c>
+      <c r="S93" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T93" s="37" t="s">
+      <c r="T93" s="36" t="s">
         <v>323</v>
       </c>
     </row>
@@ -13968,11 +13992,11 @@
       <c r="E94" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F94" s="49" t="s">
+      <c r="F94" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="G94" s="49"/>
-      <c r="H94" s="49"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="48"/>
       <c r="I94" s="27">
         <v>5</v>
       </c>
@@ -14014,13 +14038,13 @@
       <c r="E95" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="F95" s="49" t="s">
+      <c r="F95" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="G95" s="49" t="s">
+      <c r="G95" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="H95" s="49"/>
+      <c r="H95" s="48"/>
       <c r="I95" s="27">
         <v>5</v>
       </c>
@@ -14047,15 +14071,15 @@
       <c r="T95" s="25"/>
     </row>
     <row r="96" spans="1:20" s="10" customFormat="1" ht="25.5">
-      <c r="A96" s="40"/>
-      <c r="B96" s="40" t="s">
+      <c r="A96" s="39"/>
+      <c r="B96" s="39" t="s">
         <v>441</v>
       </c>
-      <c r="C96" s="38" t="s">
+      <c r="C96" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="D96" s="38"/>
-      <c r="E96" s="38" t="s">
+      <c r="D96" s="37"/>
+      <c r="E96" s="37" t="s">
         <v>284</v>
       </c>
       <c r="F96" s="26" t="s">
@@ -14063,40 +14087,40 @@
       </c>
       <c r="G96" s="26"/>
       <c r="H96" s="26"/>
-      <c r="I96" s="43">
+      <c r="I96" s="42">
         <v>5</v>
       </c>
-      <c r="J96" s="43"/>
-      <c r="K96" s="38" t="s">
+      <c r="J96" s="42"/>
+      <c r="K96" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="L96" s="38" t="s">
+      <c r="L96" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="M96" s="38" t="s">
+      <c r="M96" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="N96" s="38" t="s">
+      <c r="N96" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="O96" s="38"/>
-      <c r="P96" s="38">
+      <c r="O96" s="37"/>
+      <c r="P96" s="37">
         <v>3</v>
       </c>
-      <c r="Q96" s="38">
-        <v>0</v>
-      </c>
-      <c r="R96" s="38">
-        <v>0</v>
-      </c>
-      <c r="S96" s="38">
-        <v>0</v>
-      </c>
-      <c r="T96" s="38" t="s">
+      <c r="Q96" s="37">
+        <v>0</v>
+      </c>
+      <c r="R96" s="37">
+        <v>0</v>
+      </c>
+      <c r="S96" s="37">
+        <v>0</v>
+      </c>
+      <c r="T96" s="37" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="97" spans="1:20" s="10" customFormat="1">
+    <row r="97" spans="1:20" s="10" customFormat="1" hidden="1">
       <c r="A97" s="27">
         <v>32</v>
       </c>
@@ -14110,13 +14134,13 @@
       <c r="E97" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F97" s="49" t="s">
+      <c r="F97" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="G97" s="52" t="s">
+      <c r="G97" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="H97" s="52"/>
+      <c r="H97" s="51"/>
       <c r="I97" s="27"/>
       <c r="J97" s="27"/>
       <c r="K97" s="27">
@@ -14142,7 +14166,7 @@
       <c r="S97" s="25"/>
       <c r="T97" s="25"/>
     </row>
-    <row r="98" spans="1:20" s="10" customFormat="1" ht="25.5">
+    <row r="98" spans="1:20" s="10" customFormat="1">
       <c r="A98" s="27">
         <v>25</v>
       </c>
@@ -14156,11 +14180,11 @@
       <c r="E98" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F98" s="49" t="s">
+      <c r="F98" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="G98" s="49"/>
-      <c r="H98" s="49"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="48"/>
       <c r="I98" s="27">
         <v>5</v>
       </c>
@@ -14188,7 +14212,7 @@
       <c r="S98" s="25"/>
       <c r="T98" s="25"/>
     </row>
-    <row r="99" spans="1:20" s="10" customFormat="1">
+    <row r="99" spans="1:20" s="10" customFormat="1" hidden="1">
       <c r="A99" s="27">
         <v>42</v>
       </c>
@@ -14202,13 +14226,13 @@
       <c r="E99" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="F99" s="49" t="s">
+      <c r="F99" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="G99" s="52" t="s">
+      <c r="G99" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="H99" s="52"/>
+      <c r="H99" s="51"/>
       <c r="I99" s="27"/>
       <c r="J99" s="27"/>
       <c r="K99" s="27">
@@ -14234,7 +14258,7 @@
       <c r="S99" s="25"/>
       <c r="T99" s="25"/>
     </row>
-    <row r="100" spans="1:20" s="10" customFormat="1">
+    <row r="100" spans="1:20" s="10" customFormat="1" hidden="1">
       <c r="A100" s="27">
         <v>2</v>
       </c>
@@ -14248,11 +14272,11 @@
       <c r="E100" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="49" t="s">
+      <c r="F100" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="G100" s="52"/>
-      <c r="H100" s="52"/>
+      <c r="G100" s="51"/>
+      <c r="H100" s="51"/>
       <c r="I100" s="27"/>
       <c r="J100" s="27"/>
       <c r="K100" s="27">
@@ -14278,7 +14302,7 @@
       <c r="S100" s="25"/>
       <c r="T100" s="25"/>
     </row>
-    <row r="101" spans="1:20" s="10" customFormat="1">
+    <row r="101" spans="1:20" s="10" customFormat="1" hidden="1">
       <c r="A101" s="27">
         <v>3</v>
       </c>
@@ -14292,11 +14316,11 @@
       <c r="E101" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F101" s="49" t="s">
+      <c r="F101" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="G101" s="52"/>
-      <c r="H101" s="52"/>
+      <c r="G101" s="51"/>
+      <c r="H101" s="51"/>
       <c r="I101" s="27"/>
       <c r="J101" s="27"/>
       <c r="K101" s="27"/>
@@ -14320,7 +14344,7 @@
       <c r="S101" s="25"/>
       <c r="T101" s="25"/>
     </row>
-    <row r="102" spans="1:20" s="10" customFormat="1" ht="25.5">
+    <row r="102" spans="1:20" s="10" customFormat="1" ht="25.5" hidden="1">
       <c r="A102" s="27">
         <v>4</v>
       </c>
@@ -14334,13 +14358,13 @@
       <c r="E102" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F102" s="49" t="s">
+      <c r="F102" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="G102" s="52" t="s">
+      <c r="G102" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="H102" s="52"/>
+      <c r="H102" s="51"/>
       <c r="I102" s="27"/>
       <c r="J102" s="27"/>
       <c r="K102" s="27"/>
@@ -14366,7 +14390,7 @@
       <c r="S102" s="25"/>
       <c r="T102" s="25"/>
     </row>
-    <row r="103" spans="1:20" s="10" customFormat="1">
+    <row r="103" spans="1:20" s="10" customFormat="1" hidden="1">
       <c r="A103" s="27">
         <v>14</v>
       </c>
@@ -14380,11 +14404,11 @@
       <c r="E103" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F103" s="49" t="s">
+      <c r="F103" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="G103" s="52"/>
-      <c r="H103" s="52"/>
+      <c r="G103" s="51"/>
+      <c r="H103" s="51"/>
       <c r="I103" s="27"/>
       <c r="J103" s="27"/>
       <c r="K103" s="27">
@@ -14410,16 +14434,16 @@
       <c r="S103" s="25"/>
       <c r="T103" s="25"/>
     </row>
-    <row r="104" spans="1:20" s="10" customFormat="1">
-      <c r="A104" s="40"/>
-      <c r="B104" s="40" t="s">
+    <row r="104" spans="1:20" s="10" customFormat="1" hidden="1">
+      <c r="A104" s="39"/>
+      <c r="B104" s="39" t="s">
         <v>454</v>
       </c>
-      <c r="C104" s="38" t="s">
+      <c r="C104" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="D104" s="38"/>
-      <c r="E104" s="38" t="s">
+      <c r="D104" s="37"/>
+      <c r="E104" s="37" t="s">
         <v>275</v>
       </c>
       <c r="F104" s="26" t="s">
@@ -14427,38 +14451,38 @@
       </c>
       <c r="G104" s="26"/>
       <c r="H104" s="26"/>
-      <c r="I104" s="41"/>
-      <c r="J104" s="41"/>
-      <c r="K104" s="38" t="s">
+      <c r="I104" s="40"/>
+      <c r="J104" s="40"/>
+      <c r="K104" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="L104" s="38" t="s">
+      <c r="L104" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="M104" s="38" t="s">
+      <c r="M104" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="N104" s="38" t="s">
+      <c r="N104" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="O104" s="38"/>
-      <c r="P104" s="38">
+      <c r="O104" s="37"/>
+      <c r="P104" s="37">
         <v>1</v>
       </c>
-      <c r="Q104" s="38">
-        <v>0</v>
-      </c>
-      <c r="R104" s="38">
-        <v>0</v>
-      </c>
-      <c r="S104" s="38">
-        <v>0</v>
-      </c>
-      <c r="T104" s="38" t="s">
+      <c r="Q104" s="37">
+        <v>0</v>
+      </c>
+      <c r="R104" s="37">
+        <v>0</v>
+      </c>
+      <c r="S104" s="37">
+        <v>0</v>
+      </c>
+      <c r="T104" s="37" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:20" s="10" customFormat="1">
+    <row r="105" spans="1:20" s="10" customFormat="1" hidden="1">
       <c r="A105" s="27">
         <v>5</v>
       </c>
@@ -14472,13 +14496,13 @@
       <c r="E105" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F105" s="49" t="s">
+      <c r="F105" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="G105" s="52" t="s">
+      <c r="G105" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="H105" s="52"/>
+      <c r="H105" s="51"/>
       <c r="I105" s="27"/>
       <c r="J105" s="27"/>
       <c r="K105" s="27">
@@ -14504,7 +14528,7 @@
       <c r="S105" s="25"/>
       <c r="T105" s="25"/>
     </row>
-    <row r="106" spans="1:20" s="10" customFormat="1" ht="25.5">
+    <row r="106" spans="1:20" s="10" customFormat="1" ht="25.5" hidden="1">
       <c r="A106" s="27">
         <v>16</v>
       </c>
@@ -14518,13 +14542,13 @@
       <c r="E106" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F106" s="49" t="s">
+      <c r="F106" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="G106" s="52" t="s">
+      <c r="G106" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="H106" s="52"/>
+      <c r="H106" s="51"/>
       <c r="I106" s="27"/>
       <c r="J106" s="27"/>
       <c r="K106" s="27">
@@ -14550,55 +14574,55 @@
       <c r="S106" s="25"/>
       <c r="T106" s="25"/>
     </row>
-    <row r="107" spans="1:20" s="10" customFormat="1">
-      <c r="A107" s="37"/>
-      <c r="B107" s="37" t="s">
+    <row r="107" spans="1:20" s="10" customFormat="1" hidden="1">
+      <c r="A107" s="36"/>
+      <c r="B107" s="36" t="s">
         <v>451</v>
       </c>
-      <c r="C107" s="37" t="s">
+      <c r="C107" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="D107" s="37"/>
-      <c r="E107" s="38" t="s">
+      <c r="D107" s="36"/>
+      <c r="E107" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="F107" s="37" t="s">
+      <c r="F107" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="G107" s="37"/>
-      <c r="H107" s="37"/>
-      <c r="I107" s="37"/>
-      <c r="J107" s="37"/>
-      <c r="K107" s="37" t="s">
+      <c r="G107" s="36"/>
+      <c r="H107" s="36"/>
+      <c r="I107" s="36"/>
+      <c r="J107" s="36"/>
+      <c r="K107" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L107" s="37" t="s">
+      <c r="L107" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M107" s="37" t="s">
+      <c r="M107" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N107" s="37" t="s">
+      <c r="N107" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O107" s="37"/>
-      <c r="P107" s="37">
+      <c r="O107" s="36"/>
+      <c r="P107" s="36">
         <v>10</v>
       </c>
-      <c r="Q107" s="37">
-        <v>0</v>
-      </c>
-      <c r="R107" s="37">
-        <v>0</v>
-      </c>
-      <c r="S107" s="37" t="s">
+      <c r="Q107" s="36">
+        <v>0</v>
+      </c>
+      <c r="R107" s="36">
+        <v>0</v>
+      </c>
+      <c r="S107" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="T107" s="37" t="s">
+      <c r="T107" s="36" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="108" spans="1:20" s="10" customFormat="1">
+    <row r="108" spans="1:20" s="10" customFormat="1" hidden="1">
       <c r="A108" s="27">
         <v>8</v>
       </c>
@@ -14612,13 +14636,13 @@
       <c r="E108" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F108" s="49" t="s">
+      <c r="F108" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="G108" s="52" t="s">
+      <c r="G108" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="H108" s="52"/>
+      <c r="H108" s="51"/>
       <c r="I108" s="27"/>
       <c r="J108" s="27"/>
       <c r="K108" s="27">
@@ -14644,69 +14668,69 @@
       <c r="S108" s="25"/>
       <c r="T108" s="25"/>
     </row>
-    <row r="109" spans="1:20" s="10" customFormat="1">
-      <c r="A109" s="37"/>
-      <c r="B109" s="37" t="s">
+    <row r="109" spans="1:20" s="10" customFormat="1" hidden="1">
+      <c r="A109" s="36"/>
+      <c r="B109" s="36" t="s">
         <v>453</v>
       </c>
-      <c r="C109" s="37" t="s">
+      <c r="C109" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="D109" s="37"/>
-      <c r="E109" s="38" t="s">
+      <c r="D109" s="36"/>
+      <c r="E109" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="F109" s="37" t="s">
+      <c r="F109" s="36" t="s">
         <v>408</v>
       </c>
-      <c r="G109" s="37" t="s">
+      <c r="G109" s="36" t="s">
         <v>409</v>
       </c>
-      <c r="H109" s="37"/>
-      <c r="I109" s="38"/>
-      <c r="J109" s="38"/>
-      <c r="K109" s="37" t="s">
+      <c r="H109" s="36"/>
+      <c r="I109" s="37"/>
+      <c r="J109" s="37"/>
+      <c r="K109" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L109" s="37" t="s">
+      <c r="L109" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M109" s="37" t="s">
+      <c r="M109" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N109" s="37" t="s">
+      <c r="N109" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O109" s="37"/>
-      <c r="P109" s="37">
+      <c r="O109" s="36"/>
+      <c r="P109" s="36">
         <v>3</v>
       </c>
-      <c r="Q109" s="37">
-        <v>0</v>
-      </c>
-      <c r="R109" s="37">
-        <v>0</v>
-      </c>
-      <c r="S109" s="37" t="s">
+      <c r="Q109" s="36">
+        <v>0</v>
+      </c>
+      <c r="R109" s="36">
+        <v>0</v>
+      </c>
+      <c r="S109" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="T109" s="37" t="s">
+      <c r="T109" s="36" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="110" spans="1:20" s="4" customFormat="1" ht="25.5">
-      <c r="A110" s="37"/>
-      <c r="B110" s="37" t="s">
+      <c r="A110" s="36"/>
+      <c r="B110" s="36" t="s">
         <v>441</v>
       </c>
-      <c r="C110" s="37" t="s">
+      <c r="C110" s="36" t="s">
         <v>306</v>
       </c>
-      <c r="D110" s="37"/>
-      <c r="E110" s="38" t="s">
+      <c r="D110" s="36"/>
+      <c r="E110" s="37" t="s">
         <v>307</v>
       </c>
-      <c r="F110" s="37" t="s">
+      <c r="F110" s="36" t="s">
         <v>361</v>
       </c>
       <c r="G110" s="26"/>
@@ -14717,44 +14741,44 @@
         <v>448</v>
       </c>
       <c r="J110" s="25"/>
-      <c r="K110" s="37" t="s">
+      <c r="K110" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L110" s="37" t="s">
+      <c r="L110" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M110" s="37" t="s">
+      <c r="M110" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N110" s="37"/>
-      <c r="O110" s="37"/>
-      <c r="P110" s="37"/>
-      <c r="Q110" s="37">
+      <c r="N110" s="36"/>
+      <c r="O110" s="36"/>
+      <c r="P110" s="36"/>
+      <c r="Q110" s="36">
         <v>1</v>
       </c>
-      <c r="R110" s="37">
-        <v>0</v>
-      </c>
-      <c r="S110" s="37" t="s">
+      <c r="R110" s="36">
+        <v>0</v>
+      </c>
+      <c r="S110" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T110" s="37" t="s">
+      <c r="T110" s="36" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="111" spans="1:20" s="4" customFormat="1" ht="25.5">
-      <c r="A111" s="37"/>
-      <c r="B111" s="37" t="s">
+      <c r="A111" s="36"/>
+      <c r="B111" s="36" t="s">
         <v>441</v>
       </c>
-      <c r="C111" s="37" t="s">
+      <c r="C111" s="36" t="s">
         <v>309</v>
       </c>
-      <c r="D111" s="37"/>
-      <c r="E111" s="38" t="s">
+      <c r="D111" s="36"/>
+      <c r="E111" s="37" t="s">
         <v>310</v>
       </c>
-      <c r="F111" s="50" t="s">
+      <c r="F111" s="49" t="s">
         <v>399</v>
       </c>
       <c r="G111" s="26"/>
@@ -14765,44 +14789,44 @@
         <v>448</v>
       </c>
       <c r="J111" s="25"/>
-      <c r="K111" s="37" t="s">
+      <c r="K111" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L111" s="37" t="s">
+      <c r="L111" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M111" s="37" t="s">
+      <c r="M111" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N111" s="37"/>
-      <c r="O111" s="37"/>
-      <c r="P111" s="37"/>
-      <c r="Q111" s="37">
+      <c r="N111" s="36"/>
+      <c r="O111" s="36"/>
+      <c r="P111" s="36"/>
+      <c r="Q111" s="36">
         <v>1</v>
       </c>
-      <c r="R111" s="37">
-        <v>0</v>
-      </c>
-      <c r="S111" s="37" t="s">
+      <c r="R111" s="36">
+        <v>0</v>
+      </c>
+      <c r="S111" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T111" s="37" t="s">
+      <c r="T111" s="36" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="112" spans="1:20" s="4" customFormat="1" ht="25.5">
-      <c r="A112" s="37"/>
-      <c r="B112" s="37" t="s">
+      <c r="A112" s="36"/>
+      <c r="B112" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="C112" s="37" t="s">
+      <c r="C112" s="36" t="s">
         <v>311</v>
       </c>
-      <c r="D112" s="37"/>
-      <c r="E112" s="38" t="s">
+      <c r="D112" s="36"/>
+      <c r="E112" s="37" t="s">
         <v>312</v>
       </c>
-      <c r="F112" s="50" t="s">
+      <c r="F112" s="49" t="s">
         <v>400</v>
       </c>
       <c r="G112" s="26"/>
@@ -14813,28 +14837,28 @@
         <v>448</v>
       </c>
       <c r="J112" s="25"/>
-      <c r="K112" s="37" t="s">
+      <c r="K112" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L112" s="37" t="s">
+      <c r="L112" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M112" s="37" t="s">
+      <c r="M112" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N112" s="37"/>
-      <c r="O112" s="37"/>
-      <c r="P112" s="37"/>
-      <c r="Q112" s="37"/>
-      <c r="R112" s="37"/>
-      <c r="S112" s="37" t="s">
+      <c r="N112" s="36"/>
+      <c r="O112" s="36"/>
+      <c r="P112" s="36"/>
+      <c r="Q112" s="36"/>
+      <c r="R112" s="36"/>
+      <c r="S112" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T112" s="37" t="s">
+      <c r="T112" s="36" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="113" spans="1:20" s="4" customFormat="1" ht="25.5">
+    <row r="113" spans="1:20" s="4" customFormat="1" ht="25.5" hidden="1">
       <c r="A113" s="27">
         <v>38</v>
       </c>
@@ -14848,11 +14872,11 @@
       <c r="E113" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="F113" s="51" t="s">
+      <c r="F113" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="G113" s="52"/>
-      <c r="H113" s="52"/>
+      <c r="G113" s="51"/>
+      <c r="H113" s="51"/>
       <c r="I113" s="27"/>
       <c r="J113" s="27"/>
       <c r="K113" s="27">
@@ -14878,7 +14902,7 @@
       <c r="S113" s="25"/>
       <c r="T113" s="25"/>
     </row>
-    <row r="114" spans="1:20" s="4" customFormat="1" ht="25.5">
+    <row r="114" spans="1:20" s="4" customFormat="1" ht="25.5" hidden="1">
       <c r="A114" s="27">
         <v>39</v>
       </c>
@@ -14892,11 +14916,11 @@
       <c r="E114" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="F114" s="51" t="s">
+      <c r="F114" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="G114" s="52"/>
-      <c r="H114" s="52"/>
+      <c r="G114" s="51"/>
+      <c r="H114" s="51"/>
       <c r="I114" s="27"/>
       <c r="J114" s="27"/>
       <c r="K114" s="27">
@@ -14922,7 +14946,7 @@
       <c r="S114" s="25"/>
       <c r="T114" s="25"/>
     </row>
-    <row r="115" spans="1:20" s="4" customFormat="1">
+    <row r="115" spans="1:20" s="4" customFormat="1" hidden="1">
       <c r="A115" s="27">
         <v>20</v>
       </c>
@@ -14936,11 +14960,11 @@
       <c r="E115" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F115" s="49" t="s">
+      <c r="F115" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="G115" s="52"/>
-      <c r="H115" s="52"/>
+      <c r="G115" s="51"/>
+      <c r="H115" s="51"/>
       <c r="I115" s="27"/>
       <c r="J115" s="27"/>
       <c r="K115" s="27">
@@ -14967,18 +14991,18 @@
       <c r="T115" s="25"/>
     </row>
     <row r="116" spans="1:20" s="4" customFormat="1">
-      <c r="A116" s="37"/>
-      <c r="B116" s="37" t="s">
+      <c r="A116" s="36"/>
+      <c r="B116" s="36" t="s">
         <v>441</v>
       </c>
-      <c r="C116" s="37" t="s">
+      <c r="C116" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="D116" s="37"/>
-      <c r="E116" s="38" t="s">
+      <c r="D116" s="36"/>
+      <c r="E116" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="F116" s="37" t="s">
+      <c r="F116" s="36" t="s">
         <v>286</v>
       </c>
       <c r="G116" s="26"/>
@@ -14989,48 +15013,48 @@
         <v>448</v>
       </c>
       <c r="J116" s="25"/>
-      <c r="K116" s="37" t="s">
+      <c r="K116" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L116" s="37" t="s">
+      <c r="L116" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M116" s="37" t="s">
+      <c r="M116" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N116" s="37" t="s">
+      <c r="N116" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O116" s="37"/>
-      <c r="P116" s="37">
+      <c r="O116" s="36"/>
+      <c r="P116" s="36">
         <v>3</v>
       </c>
-      <c r="Q116" s="37">
-        <v>0</v>
-      </c>
-      <c r="R116" s="37">
-        <v>0</v>
-      </c>
-      <c r="S116" s="37" t="s">
+      <c r="Q116" s="36">
+        <v>0</v>
+      </c>
+      <c r="R116" s="36">
+        <v>0</v>
+      </c>
+      <c r="S116" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T116" s="37" t="s">
+      <c r="T116" s="36" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="117" spans="1:20" s="4" customFormat="1">
-      <c r="A117" s="37"/>
-      <c r="B117" s="37" t="s">
+      <c r="A117" s="36"/>
+      <c r="B117" s="36" t="s">
         <v>441</v>
       </c>
-      <c r="C117" s="37" t="s">
+      <c r="C117" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="D117" s="37"/>
-      <c r="E117" s="38" t="s">
+      <c r="D117" s="36"/>
+      <c r="E117" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="F117" s="37" t="s">
+      <c r="F117" s="36" t="s">
         <v>397</v>
       </c>
       <c r="G117" s="26" t="s">
@@ -15043,36 +15067,36 @@
         <v>448</v>
       </c>
       <c r="J117" s="25"/>
-      <c r="K117" s="37" t="s">
+      <c r="K117" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L117" s="37" t="s">
+      <c r="L117" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M117" s="37" t="s">
+      <c r="M117" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N117" s="37" t="s">
+      <c r="N117" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O117" s="37"/>
-      <c r="P117" s="37">
+      <c r="O117" s="36"/>
+      <c r="P117" s="36">
         <v>3</v>
       </c>
-      <c r="Q117" s="37">
-        <v>2</v>
-      </c>
-      <c r="R117" s="37">
-        <v>0</v>
-      </c>
-      <c r="S117" s="37" t="s">
+      <c r="Q117" s="36">
+        <v>2</v>
+      </c>
+      <c r="R117" s="36">
+        <v>0</v>
+      </c>
+      <c r="S117" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T117" s="37" t="s">
+      <c r="T117" s="36" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="118" spans="1:20" s="4" customFormat="1" ht="25.5">
+    <row r="118" spans="1:20" s="4" customFormat="1">
       <c r="A118" s="27">
         <v>15</v>
       </c>
@@ -15086,11 +15110,11 @@
       <c r="E118" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F118" s="49" t="s">
+      <c r="F118" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="G118" s="49"/>
-      <c r="H118" s="49" t="s">
+      <c r="G118" s="48"/>
+      <c r="H118" s="48" t="s">
         <v>478</v>
       </c>
       <c r="I118" s="27">
@@ -15119,7 +15143,7 @@
       <c r="S118" s="25"/>
       <c r="T118" s="25"/>
     </row>
-    <row r="119" spans="1:20" s="4" customFormat="1">
+    <row r="119" spans="1:20" s="4" customFormat="1" hidden="1">
       <c r="A119" s="27">
         <v>33</v>
       </c>
@@ -15133,13 +15157,13 @@
       <c r="E119" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F119" s="49" t="s">
+      <c r="F119" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="G119" s="52" t="s">
+      <c r="G119" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="H119" s="52"/>
+      <c r="H119" s="51"/>
       <c r="I119" s="27"/>
       <c r="J119" s="27"/>
       <c r="K119" s="27">
@@ -15166,70 +15190,70 @@
       <c r="T119" s="25"/>
     </row>
     <row r="120" spans="1:20" ht="25.5">
-      <c r="A120" s="37"/>
-      <c r="B120" s="37" t="s">
+      <c r="A120" s="36"/>
+      <c r="B120" s="36" t="s">
         <v>448</v>
       </c>
-      <c r="C120" s="37" t="s">
+      <c r="C120" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D120" s="37"/>
-      <c r="E120" s="38" t="s">
+      <c r="D120" s="36"/>
+      <c r="E120" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="F120" s="37" t="s">
+      <c r="F120" s="36" t="s">
         <v>298</v>
       </c>
-      <c r="G120" s="55" t="s">
+      <c r="G120" s="54" t="s">
         <v>420</v>
       </c>
-      <c r="H120" s="55"/>
-      <c r="I120" s="42">
+      <c r="H120" s="54"/>
+      <c r="I120" s="41">
         <v>1</v>
       </c>
-      <c r="J120" s="42"/>
-      <c r="K120" s="37" t="s">
+      <c r="J120" s="41"/>
+      <c r="K120" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L120" s="37" t="s">
+      <c r="L120" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M120" s="37" t="s">
+      <c r="M120" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N120" s="37" t="s">
+      <c r="N120" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O120" s="37"/>
-      <c r="P120" s="37">
+      <c r="O120" s="36"/>
+      <c r="P120" s="36">
         <v>3</v>
       </c>
-      <c r="Q120" s="37">
-        <v>0</v>
-      </c>
-      <c r="R120" s="37">
-        <v>0</v>
-      </c>
-      <c r="S120" s="37" t="s">
+      <c r="Q120" s="36">
+        <v>0</v>
+      </c>
+      <c r="R120" s="36">
+        <v>0</v>
+      </c>
+      <c r="S120" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T120" s="37" t="s">
+      <c r="T120" s="36" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="121" spans="1:20" ht="25.5">
-      <c r="A121" s="37"/>
-      <c r="B121" s="37" t="s">
+      <c r="A121" s="36"/>
+      <c r="B121" s="36" t="s">
         <v>450</v>
       </c>
-      <c r="C121" s="37" t="s">
+      <c r="C121" s="36" t="s">
         <v>344</v>
       </c>
-      <c r="D121" s="37"/>
-      <c r="E121" s="38" t="s">
+      <c r="D121" s="36"/>
+      <c r="E121" s="37" t="s">
         <v>345</v>
       </c>
-      <c r="F121" s="37" t="s">
+      <c r="F121" s="36" t="s">
         <v>408</v>
       </c>
       <c r="G121" s="26"/>
@@ -15238,44 +15262,44 @@
         <v>1</v>
       </c>
       <c r="J121" s="25"/>
-      <c r="K121" s="37" t="s">
+      <c r="K121" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L121" s="37" t="s">
+      <c r="L121" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M121" s="37" t="s">
+      <c r="M121" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N121" s="37"/>
-      <c r="O121" s="37"/>
-      <c r="P121" s="37"/>
-      <c r="Q121" s="37">
-        <v>2</v>
-      </c>
-      <c r="R121" s="37">
-        <v>0</v>
-      </c>
-      <c r="S121" s="37" t="s">
+      <c r="N121" s="36"/>
+      <c r="O121" s="36"/>
+      <c r="P121" s="36"/>
+      <c r="Q121" s="36">
+        <v>2</v>
+      </c>
+      <c r="R121" s="36">
+        <v>0</v>
+      </c>
+      <c r="S121" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T121" s="37" t="s">
+      <c r="T121" s="36" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="122" spans="1:20" ht="25.5">
-      <c r="A122" s="37"/>
-      <c r="B122" s="37" t="s">
+      <c r="A122" s="36"/>
+      <c r="B122" s="36" t="s">
         <v>450</v>
       </c>
-      <c r="C122" s="37" t="s">
+      <c r="C122" s="36" t="s">
         <v>346</v>
       </c>
-      <c r="D122" s="37"/>
-      <c r="E122" s="38" t="s">
+      <c r="D122" s="36"/>
+      <c r="E122" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="F122" s="37" t="s">
+      <c r="F122" s="36" t="s">
         <v>367</v>
       </c>
       <c r="G122" s="26"/>
@@ -15284,44 +15308,44 @@
         <v>1</v>
       </c>
       <c r="J122" s="25"/>
-      <c r="K122" s="37" t="s">
+      <c r="K122" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L122" s="37" t="s">
+      <c r="L122" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M122" s="37" t="s">
+      <c r="M122" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N122" s="37"/>
-      <c r="O122" s="37"/>
-      <c r="P122" s="37"/>
-      <c r="Q122" s="37">
+      <c r="N122" s="36"/>
+      <c r="O122" s="36"/>
+      <c r="P122" s="36"/>
+      <c r="Q122" s="36">
         <v>5</v>
       </c>
-      <c r="R122" s="37">
-        <v>0</v>
-      </c>
-      <c r="S122" s="37" t="s">
+      <c r="R122" s="36">
+        <v>0</v>
+      </c>
+      <c r="S122" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T122" s="37" t="s">
+      <c r="T122" s="36" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="123" spans="1:20">
-      <c r="A123" s="37"/>
-      <c r="B123" s="37" t="s">
+      <c r="A123" s="36"/>
+      <c r="B123" s="36" t="s">
         <v>450</v>
       </c>
-      <c r="C123" s="37" t="s">
+      <c r="C123" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="D123" s="37"/>
-      <c r="E123" s="38" t="s">
+      <c r="D123" s="36"/>
+      <c r="E123" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="F123" s="37" t="s">
+      <c r="F123" s="36" t="s">
         <v>396</v>
       </c>
       <c r="G123" s="26"/>
@@ -15330,32 +15354,32 @@
         <v>1</v>
       </c>
       <c r="J123" s="25"/>
-      <c r="K123" s="37" t="s">
+      <c r="K123" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="L123" s="37" t="s">
+      <c r="L123" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M123" s="37" t="s">
+      <c r="M123" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="N123" s="37" t="s">
+      <c r="N123" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="O123" s="37"/>
-      <c r="P123" s="37">
+      <c r="O123" s="36"/>
+      <c r="P123" s="36">
         <v>40</v>
       </c>
-      <c r="Q123" s="37">
+      <c r="Q123" s="36">
         <v>7</v>
       </c>
-      <c r="R123" s="37">
-        <v>0</v>
-      </c>
-      <c r="S123" s="37" t="s">
+      <c r="R123" s="36">
+        <v>0</v>
+      </c>
+      <c r="S123" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="T123" s="37" t="s">
+      <c r="T123" s="36" t="s">
         <v>308</v>
       </c>
     </row>
@@ -15379,9 +15403,9 @@
       <c r="C125" s="17"/>
       <c r="D125" s="17"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="56"/>
-      <c r="G125" s="56"/>
-      <c r="H125" s="56"/>
+      <c r="F125" s="55"/>
+      <c r="G125" s="55"/>
+      <c r="H125" s="55"/>
       <c r="I125" s="17"/>
       <c r="J125" s="17"/>
       <c r="K125" s="17"/>
@@ -15413,9 +15437,9 @@
       <c r="C127" s="17"/>
       <c r="D127" s="17"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="56"/>
-      <c r="G127" s="56"/>
-      <c r="H127" s="56"/>
+      <c r="F127" s="55"/>
+      <c r="G127" s="55"/>
+      <c r="H127" s="55"/>
       <c r="I127" s="17"/>
       <c r="J127" s="17"/>
       <c r="K127" s="17"/>
@@ -15447,9 +15471,9 @@
       <c r="C129" s="17"/>
       <c r="D129" s="17"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="56"/>
-      <c r="G129" s="56"/>
-      <c r="H129" s="56"/>
+      <c r="F129" s="55"/>
+      <c r="G129" s="55"/>
+      <c r="H129" s="55"/>
       <c r="I129" s="17"/>
       <c r="J129" s="17"/>
       <c r="K129" s="17"/>
@@ -15481,9 +15505,9 @@
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="56"/>
-      <c r="G131" s="56"/>
-      <c r="H131" s="56"/>
+      <c r="F131" s="55"/>
+      <c r="G131" s="55"/>
+      <c r="H131" s="55"/>
       <c r="I131" s="17"/>
       <c r="J131" s="17"/>
       <c r="K131" s="17"/>
@@ -15546,7 +15570,7 @@
       </filters>
     </filterColumn>
     <filterColumn colId="9">
-      <filters>
+      <filters blank="1">
         <filter val="5"/>
       </filters>
     </filterColumn>

--- a/RallyLists.xlsx
+++ b/RallyLists.xlsx
@@ -2433,7 +2433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2564,12 +2564,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2611,6 +2605,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9461,7 +9458,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16:E21"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9683,7 +9680,7 @@
       </c>
       <c r="T4" s="36"/>
     </row>
-    <row r="5" spans="1:20" ht="63.75" hidden="1">
+    <row r="5" spans="1:20" ht="63.75">
       <c r="A5" s="36"/>
       <c r="B5" s="36" t="s">
         <v>447</v>
@@ -9730,7 +9727,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="216.75" hidden="1">
+    <row r="6" spans="1:20" ht="216.75">
       <c r="A6" s="36"/>
       <c r="B6" s="36" t="s">
         <v>447</v>
@@ -9781,7 +9778,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="25.5" hidden="1">
+    <row r="7" spans="1:20" ht="25.5">
       <c r="A7" s="36"/>
       <c r="B7" s="36" t="s">
         <v>447</v>
@@ -9832,7 +9829,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="38.25" hidden="1">
+    <row r="8" spans="1:20" ht="38.25">
       <c r="A8" s="36"/>
       <c r="B8" s="36" t="s">
         <v>439</v>
@@ -9884,7 +9881,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="51" hidden="1">
+    <row r="9" spans="1:20" ht="51">
       <c r="A9" s="36"/>
       <c r="B9" s="36" t="s">
         <v>447</v>
@@ -9934,7 +9931,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="216.75" hidden="1">
+    <row r="10" spans="1:20">
       <c r="A10" s="36"/>
       <c r="B10" s="36" t="s">
         <v>447</v>
@@ -9945,22 +9942,22 @@
       <c r="D10" s="36" t="s">
         <v>481</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="36" t="s">
         <v>463</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="58" t="s">
         <v>485</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="25">
         <v>1</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="25">
         <v>1</v>
       </c>
       <c r="K10" s="36" t="s">
@@ -9992,7 +9989,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="165.75" hidden="1">
+    <row r="11" spans="1:20" ht="165.75">
       <c r="A11" s="36"/>
       <c r="B11" s="36" t="s">
         <v>447</v>
@@ -10050,7 +10047,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="216.75" hidden="1">
+    <row r="12" spans="1:20" ht="216.75">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
         <v>447</v>
@@ -10102,7 +10099,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="36"/>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="54" t="s">
         <v>439</v>
       </c>
       <c r="C13" s="36" t="s">
@@ -10158,7 +10155,7 @@
     </row>
     <row r="14" spans="1:20" ht="38.25">
       <c r="A14" s="36"/>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="54" t="s">
         <v>447</v>
       </c>
       <c r="C14" s="36" t="s">
@@ -10208,7 +10205,7 @@
     </row>
     <row r="15" spans="1:20" ht="38.25">
       <c r="A15" s="36"/>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="54" t="s">
         <v>447</v>
       </c>
       <c r="C15" s="36" t="s">
@@ -10252,7 +10249,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="36"/>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="54" t="s">
         <v>447</v>
       </c>
       <c r="C16" s="36" t="s">
@@ -10304,7 +10301,7 @@
     </row>
     <row r="17" spans="1:20" s="10" customFormat="1" ht="38.25">
       <c r="A17" s="36"/>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="54" t="s">
         <v>447</v>
       </c>
       <c r="C17" s="36" t="s">
@@ -10354,7 +10351,7 @@
       <c r="A18" s="27">
         <v>7</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="55" t="s">
         <v>435</v>
       </c>
       <c r="C18" s="28" t="s">
@@ -10366,11 +10363,11 @@
       <c r="E18" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="48" t="s">
+      <c r="F18" s="46" t="s">
         <v>488</v>
       </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="47" t="s">
+      <c r="G18" s="46"/>
+      <c r="H18" s="45" t="s">
         <v>487</v>
       </c>
       <c r="I18" s="27">
@@ -10402,7 +10399,7 @@
     </row>
     <row r="19" spans="1:20" ht="25.5">
       <c r="A19" s="36"/>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="54" t="s">
         <v>447</v>
       </c>
       <c r="C19" s="36" t="s">
@@ -10456,7 +10453,7 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="36"/>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="54" t="s">
         <v>440</v>
       </c>
       <c r="C20" s="36" t="s">
@@ -10510,7 +10507,7 @@
       <c r="A21" s="27">
         <v>41</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="55" t="s">
         <v>439</v>
       </c>
       <c r="C21" s="28" t="s">
@@ -10520,13 +10517,13 @@
       <c r="E21" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="G21" s="48" t="s">
+      <c r="G21" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="48"/>
+      <c r="H21" s="46"/>
       <c r="I21" s="27">
         <v>3</v>
       </c>
@@ -10558,7 +10555,7 @@
       <c r="A22" s="27">
         <v>12</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="56" t="s">
         <v>440</v>
       </c>
       <c r="C22" s="28" t="s">
@@ -10568,11 +10565,11 @@
       <c r="E22" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48" t="s">
+      <c r="G22" s="46"/>
+      <c r="H22" s="46" t="s">
         <v>472</v>
       </c>
       <c r="I22" s="27">
@@ -10606,7 +10603,7 @@
       <c r="A23" s="27">
         <v>13</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="56" t="s">
         <v>440</v>
       </c>
       <c r="C23" s="28" t="s">
@@ -10616,11 +10613,11 @@
       <c r="E23" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
       <c r="I23" s="27">
         <v>5</v>
       </c>
@@ -10663,10 +10660,10 @@
       <c r="F24" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="G24" s="49" t="s">
+      <c r="G24" s="47" t="s">
         <v>398</v>
       </c>
-      <c r="H24" s="49"/>
+      <c r="H24" s="47"/>
       <c r="I24" s="38"/>
       <c r="J24" s="38">
         <v>1</v>
@@ -10713,10 +10710,10 @@
       <c r="F25" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="G25" s="49" t="s">
+      <c r="G25" s="47" t="s">
         <v>398</v>
       </c>
-      <c r="H25" s="49"/>
+      <c r="H25" s="47"/>
       <c r="I25" s="38"/>
       <c r="J25" s="38">
         <v>1</v>
@@ -10996,7 +10993,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="76.5" hidden="1">
+    <row r="31" spans="1:20">
       <c r="A31" s="36"/>
       <c r="B31" s="36" t="s">
         <v>447</v>
@@ -11007,20 +11004,20 @@
       <c r="D31" s="36" t="s">
         <v>482</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="36" t="s">
         <v>304</v>
       </c>
       <c r="G31" s="26"/>
-      <c r="H31" s="40" t="s">
+      <c r="H31" s="26" t="s">
         <v>486</v>
       </c>
       <c r="I31" s="25">
         <v>1</v>
       </c>
-      <c r="J31" s="46">
+      <c r="J31" s="44">
         <v>1</v>
       </c>
       <c r="K31" s="36" t="s">
@@ -11052,7 +11049,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="127.5" hidden="1">
+    <row r="32" spans="1:20">
       <c r="A32" s="36"/>
       <c r="B32" s="36" t="s">
         <v>439</v>
@@ -11063,20 +11060,20 @@
       <c r="D32" s="36" t="s">
         <v>482</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="E32" s="36" t="s">
         <v>329</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="F32" s="36" t="s">
         <v>381</v>
       </c>
       <c r="G32" s="26"/>
-      <c r="H32" s="44" t="s">
+      <c r="H32" s="43" t="s">
         <v>483</v>
       </c>
       <c r="I32" s="25">
         <v>1</v>
       </c>
-      <c r="J32" s="46">
+      <c r="J32" s="44">
         <v>1</v>
       </c>
       <c r="K32" s="36" t="s">
@@ -11163,16 +11160,16 @@
         <v>183</v>
       </c>
       <c r="D34" s="36"/>
-      <c r="E34" s="59" t="s">
+      <c r="E34" s="57" t="s">
         <v>184</v>
       </c>
       <c r="F34" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="G34" s="49" t="s">
+      <c r="G34" s="47" t="s">
         <v>398</v>
       </c>
-      <c r="H34" s="49"/>
+      <c r="H34" s="47"/>
       <c r="I34" s="38"/>
       <c r="J34" s="38">
         <v>1</v>
@@ -11221,10 +11218,10 @@
       <c r="F35" s="36" t="s">
         <v>291</v>
       </c>
-      <c r="G35" s="49" t="s">
+      <c r="G35" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="H35" s="49"/>
+      <c r="H35" s="47"/>
       <c r="I35" s="38"/>
       <c r="J35" s="38">
         <v>1</v>
@@ -11256,7 +11253,7 @@
       </c>
       <c r="T35" s="36"/>
     </row>
-    <row r="36" spans="1:20" ht="242.25" hidden="1">
+    <row r="36" spans="1:20">
       <c r="A36" s="36"/>
       <c r="B36" s="36" t="s">
         <v>447</v>
@@ -11267,20 +11264,20 @@
       <c r="D36" s="36" t="s">
         <v>482</v>
       </c>
-      <c r="E36" s="37" t="s">
+      <c r="E36" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="F36" s="37" t="s">
+      <c r="F36" s="36" t="s">
         <v>469</v>
       </c>
       <c r="G36" s="26"/>
-      <c r="H36" s="44" t="s">
+      <c r="H36" s="43" t="s">
         <v>484</v>
       </c>
       <c r="I36" s="25">
         <v>1</v>
       </c>
-      <c r="J36" s="46">
+      <c r="J36" s="44">
         <v>1</v>
       </c>
       <c r="K36" s="36" t="s">
@@ -11312,7 +11309,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="38.25" hidden="1">
+    <row r="37" spans="1:20" ht="38.25">
       <c r="A37" s="36"/>
       <c r="B37" s="36" t="s">
         <v>447</v>
@@ -11334,7 +11331,7 @@
       <c r="I37" s="25">
         <v>1</v>
       </c>
-      <c r="J37" s="46">
+      <c r="J37" s="44">
         <v>1</v>
       </c>
       <c r="K37" s="36" t="s">
@@ -11964,11 +11961,11 @@
       <c r="E51" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F51" s="48" t="s">
+      <c r="F51" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
       <c r="I51" s="27"/>
       <c r="J51" s="27"/>
       <c r="K51" s="27">
@@ -12056,10 +12053,10 @@
       <c r="E53" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="F53" s="48" t="s">
+      <c r="F53" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="G53" s="48"/>
+      <c r="G53" s="46"/>
       <c r="H53" s="26" t="s">
         <v>470</v>
       </c>
@@ -12104,11 +12101,11 @@
       <c r="E54" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F54" s="48" t="s">
+      <c r="F54" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
       <c r="I54" s="27"/>
       <c r="J54" s="27"/>
       <c r="K54" s="27">
@@ -12148,11 +12145,11 @@
       <c r="E55" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F55" s="48" t="s">
+      <c r="F55" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
       <c r="I55" s="27"/>
       <c r="J55" s="27"/>
       <c r="K55" s="27">
@@ -12242,11 +12239,11 @@
       <c r="E57" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F57" s="48" t="s">
+      <c r="F57" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
       <c r="I57" s="27">
         <v>2</v>
       </c>
@@ -12438,7 +12435,7 @@
         <v>432</v>
       </c>
       <c r="G61" s="26"/>
-      <c r="H61" s="48" t="s">
+      <c r="H61" s="46" t="s">
         <v>472</v>
       </c>
       <c r="I61" s="42">
@@ -12488,13 +12485,13 @@
       <c r="E62" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F62" s="48" t="s">
+      <c r="F62" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="G62" s="51" t="s">
+      <c r="G62" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="H62" s="51"/>
+      <c r="H62" s="49"/>
       <c r="I62" s="27"/>
       <c r="J62" s="27"/>
       <c r="K62" s="27">
@@ -12534,13 +12531,13 @@
       <c r="E63" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F63" s="48" t="s">
+      <c r="F63" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="G63" s="48" t="s">
+      <c r="G63" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="H63" s="48"/>
+      <c r="H63" s="46"/>
       <c r="I63" s="27">
         <v>3</v>
       </c>
@@ -12630,11 +12627,11 @@
       <c r="E65" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="F65" s="48" t="s">
+      <c r="F65" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="G65" s="51"/>
-      <c r="H65" s="51"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
       <c r="I65" s="27"/>
       <c r="J65" s="27"/>
       <c r="K65" s="27">
@@ -12674,11 +12671,11 @@
       <c r="E66" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F66" s="48" t="s">
+      <c r="F66" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
       <c r="I66" s="27">
         <v>3</v>
       </c>
@@ -12768,11 +12765,11 @@
       <c r="E68" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F68" s="48" t="s">
+      <c r="F68" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="G68" s="48"/>
-      <c r="H68" s="48"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
       <c r="I68" s="27">
         <v>3</v>
       </c>
@@ -12814,11 +12811,11 @@
       <c r="E69" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="48" t="s">
+      <c r="F69" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
       <c r="I69" s="27"/>
       <c r="J69" s="27"/>
       <c r="K69" s="27">
@@ -12858,13 +12855,13 @@
       <c r="E70" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F70" s="48" t="s">
+      <c r="F70" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="G70" s="48" t="s">
+      <c r="G70" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="H70" s="48"/>
+      <c r="H70" s="46"/>
       <c r="I70" s="27">
         <v>3</v>
       </c>
@@ -12906,11 +12903,11 @@
       <c r="E71" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F71" s="52" t="s">
+      <c r="F71" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="G71" s="53"/>
-      <c r="H71" s="53"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="51"/>
       <c r="I71" s="32"/>
       <c r="J71" s="32"/>
       <c r="K71" s="32"/>
@@ -12948,11 +12945,11 @@
       <c r="E72" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F72" s="48" t="s">
+      <c r="F72" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="G72" s="51"/>
-      <c r="H72" s="51"/>
+      <c r="G72" s="49"/>
+      <c r="H72" s="49"/>
       <c r="I72" s="27"/>
       <c r="J72" s="27"/>
       <c r="K72" s="27"/>
@@ -12990,11 +12987,11 @@
       <c r="E73" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F73" s="48" t="s">
+      <c r="F73" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="G73" s="51"/>
-      <c r="H73" s="51"/>
+      <c r="G73" s="49"/>
+      <c r="H73" s="49"/>
       <c r="I73" s="27"/>
       <c r="J73" s="27"/>
       <c r="K73" s="27"/>
@@ -13032,11 +13029,11 @@
       <c r="E74" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F74" s="48" t="s">
+      <c r="F74" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="G74" s="51"/>
-      <c r="H74" s="51"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="49"/>
       <c r="I74" s="27"/>
       <c r="J74" s="27"/>
       <c r="K74" s="27"/>
@@ -13074,13 +13071,13 @@
       <c r="E75" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="F75" s="48" t="s">
+      <c r="F75" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="G75" s="48" t="s">
+      <c r="G75" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="H75" s="48"/>
+      <c r="H75" s="46"/>
       <c r="I75" s="27">
         <v>3</v>
       </c>
@@ -13122,13 +13119,13 @@
       <c r="E76" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F76" s="48" t="s">
+      <c r="F76" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="G76" s="48" t="s">
+      <c r="G76" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="H76" s="48"/>
+      <c r="H76" s="46"/>
       <c r="I76" s="27">
         <v>3</v>
       </c>
@@ -13170,13 +13167,13 @@
       <c r="E77" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F77" s="48" t="s">
+      <c r="F77" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="G77" s="48" t="s">
+      <c r="G77" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="H77" s="48"/>
+      <c r="H77" s="46"/>
       <c r="I77" s="27">
         <v>3</v>
       </c>
@@ -13322,11 +13319,11 @@
       <c r="E80" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F80" s="48" t="s">
+      <c r="F80" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="G80" s="51"/>
-      <c r="H80" s="51"/>
+      <c r="G80" s="49"/>
+      <c r="H80" s="49"/>
       <c r="I80" s="27"/>
       <c r="J80" s="27"/>
       <c r="K80" s="27">
@@ -13512,13 +13509,13 @@
       <c r="E84" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F84" s="48" t="s">
+      <c r="F84" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="G84" s="51" t="s">
+      <c r="G84" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="H84" s="51"/>
+      <c r="H84" s="49"/>
       <c r="I84" s="27"/>
       <c r="J84" s="27"/>
       <c r="K84" s="27">
@@ -13854,11 +13851,11 @@
       <c r="E91" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F91" s="48" t="s">
+      <c r="F91" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="G91" s="51"/>
-      <c r="H91" s="51"/>
+      <c r="G91" s="49"/>
+      <c r="H91" s="49"/>
       <c r="I91" s="27"/>
       <c r="J91" s="27"/>
       <c r="K91" s="27">
@@ -13898,11 +13895,11 @@
       <c r="E92" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="F92" s="48" t="s">
+      <c r="F92" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="G92" s="51"/>
-      <c r="H92" s="51"/>
+      <c r="G92" s="49"/>
+      <c r="H92" s="49"/>
       <c r="I92" s="27"/>
       <c r="J92" s="27"/>
       <c r="K92" s="27">
@@ -13992,11 +13989,11 @@
       <c r="E94" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F94" s="48" t="s">
+      <c r="F94" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="G94" s="48"/>
-      <c r="H94" s="48"/>
+      <c r="G94" s="46"/>
+      <c r="H94" s="46"/>
       <c r="I94" s="27">
         <v>5</v>
       </c>
@@ -14038,13 +14035,13 @@
       <c r="E95" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="F95" s="48" t="s">
+      <c r="F95" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="G95" s="48" t="s">
+      <c r="G95" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="H95" s="48"/>
+      <c r="H95" s="46"/>
       <c r="I95" s="27">
         <v>5</v>
       </c>
@@ -14134,13 +14131,13 @@
       <c r="E97" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F97" s="48" t="s">
+      <c r="F97" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="G97" s="51" t="s">
+      <c r="G97" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="H97" s="51"/>
+      <c r="H97" s="49"/>
       <c r="I97" s="27"/>
       <c r="J97" s="27"/>
       <c r="K97" s="27">
@@ -14180,11 +14177,11 @@
       <c r="E98" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F98" s="48" t="s">
+      <c r="F98" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="G98" s="48"/>
-      <c r="H98" s="48"/>
+      <c r="G98" s="46"/>
+      <c r="H98" s="46"/>
       <c r="I98" s="27">
         <v>5</v>
       </c>
@@ -14226,13 +14223,13 @@
       <c r="E99" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="F99" s="48" t="s">
+      <c r="F99" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="G99" s="51" t="s">
+      <c r="G99" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="H99" s="51"/>
+      <c r="H99" s="49"/>
       <c r="I99" s="27"/>
       <c r="J99" s="27"/>
       <c r="K99" s="27">
@@ -14272,11 +14269,11 @@
       <c r="E100" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="48" t="s">
+      <c r="F100" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="G100" s="51"/>
-      <c r="H100" s="51"/>
+      <c r="G100" s="49"/>
+      <c r="H100" s="49"/>
       <c r="I100" s="27"/>
       <c r="J100" s="27"/>
       <c r="K100" s="27">
@@ -14316,11 +14313,11 @@
       <c r="E101" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F101" s="48" t="s">
+      <c r="F101" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="G101" s="51"/>
-      <c r="H101" s="51"/>
+      <c r="G101" s="49"/>
+      <c r="H101" s="49"/>
       <c r="I101" s="27"/>
       <c r="J101" s="27"/>
       <c r="K101" s="27"/>
@@ -14358,13 +14355,13 @@
       <c r="E102" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F102" s="48" t="s">
+      <c r="F102" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="G102" s="51" t="s">
+      <c r="G102" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="H102" s="51"/>
+      <c r="H102" s="49"/>
       <c r="I102" s="27"/>
       <c r="J102" s="27"/>
       <c r="K102" s="27"/>
@@ -14404,11 +14401,11 @@
       <c r="E103" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F103" s="48" t="s">
+      <c r="F103" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="G103" s="51"/>
-      <c r="H103" s="51"/>
+      <c r="G103" s="49"/>
+      <c r="H103" s="49"/>
       <c r="I103" s="27"/>
       <c r="J103" s="27"/>
       <c r="K103" s="27">
@@ -14496,13 +14493,13 @@
       <c r="E105" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F105" s="48" t="s">
+      <c r="F105" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="G105" s="51" t="s">
+      <c r="G105" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="H105" s="51"/>
+      <c r="H105" s="49"/>
       <c r="I105" s="27"/>
       <c r="J105" s="27"/>
       <c r="K105" s="27">
@@ -14542,13 +14539,13 @@
       <c r="E106" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F106" s="48" t="s">
+      <c r="F106" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="G106" s="51" t="s">
+      <c r="G106" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="H106" s="51"/>
+      <c r="H106" s="49"/>
       <c r="I106" s="27"/>
       <c r="J106" s="27"/>
       <c r="K106" s="27">
@@ -14636,13 +14633,13 @@
       <c r="E108" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F108" s="48" t="s">
+      <c r="F108" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="G108" s="51" t="s">
+      <c r="G108" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="H108" s="51"/>
+      <c r="H108" s="49"/>
       <c r="I108" s="27"/>
       <c r="J108" s="27"/>
       <c r="K108" s="27">
@@ -14778,7 +14775,7 @@
       <c r="E111" s="37" t="s">
         <v>310</v>
       </c>
-      <c r="F111" s="49" t="s">
+      <c r="F111" s="47" t="s">
         <v>399</v>
       </c>
       <c r="G111" s="26"/>
@@ -14826,7 +14823,7 @@
       <c r="E112" s="37" t="s">
         <v>312</v>
       </c>
-      <c r="F112" s="49" t="s">
+      <c r="F112" s="47" t="s">
         <v>400</v>
       </c>
       <c r="G112" s="26"/>
@@ -14858,7 +14855,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="113" spans="1:20" s="4" customFormat="1" ht="25.5" hidden="1">
+    <row r="113" spans="1:20" s="4" customFormat="1" hidden="1">
       <c r="A113" s="27">
         <v>38</v>
       </c>
@@ -14872,11 +14869,11 @@
       <c r="E113" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="F113" s="50" t="s">
+      <c r="F113" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="G113" s="51"/>
-      <c r="H113" s="51"/>
+      <c r="G113" s="49"/>
+      <c r="H113" s="49"/>
       <c r="I113" s="27"/>
       <c r="J113" s="27"/>
       <c r="K113" s="27">
@@ -14916,11 +14913,11 @@
       <c r="E114" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="F114" s="50" t="s">
+      <c r="F114" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="G114" s="51"/>
-      <c r="H114" s="51"/>
+      <c r="G114" s="49"/>
+      <c r="H114" s="49"/>
       <c r="I114" s="27"/>
       <c r="J114" s="27"/>
       <c r="K114" s="27">
@@ -14960,11 +14957,11 @@
       <c r="E115" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F115" s="48" t="s">
+      <c r="F115" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="G115" s="51"/>
-      <c r="H115" s="51"/>
+      <c r="G115" s="49"/>
+      <c r="H115" s="49"/>
       <c r="I115" s="27"/>
       <c r="J115" s="27"/>
       <c r="K115" s="27">
@@ -15110,11 +15107,11 @@
       <c r="E118" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F118" s="48" t="s">
+      <c r="F118" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="G118" s="48"/>
-      <c r="H118" s="48" t="s">
+      <c r="G118" s="46"/>
+      <c r="H118" s="46" t="s">
         <v>478</v>
       </c>
       <c r="I118" s="27">
@@ -15157,13 +15154,13 @@
       <c r="E119" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F119" s="48" t="s">
+      <c r="F119" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="G119" s="51" t="s">
+      <c r="G119" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="H119" s="51"/>
+      <c r="H119" s="49"/>
       <c r="I119" s="27"/>
       <c r="J119" s="27"/>
       <c r="K119" s="27">
@@ -15204,10 +15201,10 @@
       <c r="F120" s="36" t="s">
         <v>298</v>
       </c>
-      <c r="G120" s="54" t="s">
+      <c r="G120" s="52" t="s">
         <v>420</v>
       </c>
-      <c r="H120" s="54"/>
+      <c r="H120" s="52"/>
       <c r="I120" s="41">
         <v>1</v>
       </c>
@@ -15287,7 +15284,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="25.5">
+    <row r="122" spans="1:20">
       <c r="A122" s="36"/>
       <c r="B122" s="36" t="s">
         <v>450</v>
@@ -15403,9 +15400,9 @@
       <c r="C125" s="17"/>
       <c r="D125" s="17"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="55"/>
-      <c r="G125" s="55"/>
-      <c r="H125" s="55"/>
+      <c r="F125" s="53"/>
+      <c r="G125" s="53"/>
+      <c r="H125" s="53"/>
       <c r="I125" s="17"/>
       <c r="J125" s="17"/>
       <c r="K125" s="17"/>
@@ -15437,9 +15434,9 @@
       <c r="C127" s="17"/>
       <c r="D127" s="17"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="55"/>
-      <c r="G127" s="55"/>
-      <c r="H127" s="55"/>
+      <c r="F127" s="53"/>
+      <c r="G127" s="53"/>
+      <c r="H127" s="53"/>
       <c r="I127" s="17"/>
       <c r="J127" s="17"/>
       <c r="K127" s="17"/>
@@ -15471,9 +15468,9 @@
       <c r="C129" s="17"/>
       <c r="D129" s="17"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="55"/>
-      <c r="G129" s="55"/>
-      <c r="H129" s="55"/>
+      <c r="F129" s="53"/>
+      <c r="G129" s="53"/>
+      <c r="H129" s="53"/>
       <c r="I129" s="17"/>
       <c r="J129" s="17"/>
       <c r="K129" s="17"/>
@@ -15505,9 +15502,9 @@
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="55"/>
-      <c r="G131" s="55"/>
-      <c r="H131" s="55"/>
+      <c r="F131" s="53"/>
+      <c r="G131" s="53"/>
+      <c r="H131" s="53"/>
       <c r="I131" s="17"/>
       <c r="J131" s="17"/>
       <c r="K131" s="17"/>
@@ -15567,11 +15564,6 @@
         <filter val="Order"/>
         <filter val="System"/>
         <filter val="web"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters blank="1">
-        <filter val="5"/>
       </filters>
     </filterColumn>
   </autoFilter>
